--- a/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
+++ b/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DobbsC\PycharmProjects\funding-service-design-post-award-data-store\tests\controller_tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B49F11-EBF0-4F24-9E06-615D9758F876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D7EC74-129D-40B2-A2D2-B2799102D3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15615" yWindow="9270" windowWidth="34245" windowHeight="11385" firstSheet="6" activeTab="12" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
+    <workbookView xWindow="10590" yWindow="7890" windowWidth="34245" windowHeight="11385" activeTab="2" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission_Ref" sheetId="20" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="409">
   <si>
     <t>Submission ID</t>
   </si>
@@ -101,13 +101,7 @@
     <t>FundType_ID</t>
   </si>
   <si>
-    <t>Organisation ID</t>
-  </si>
-  <si>
     <t>LUF0052</t>
-  </si>
-  <si>
-    <t>Org001</t>
   </si>
   <si>
     <t>Leaky Cauldron regeneration</t>
@@ -1487,8 +1481,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F9836CEE-F6DA-455F-9341-7D9AB58DF929}" name="Table11" displayName="Table11" ref="B1:C5" totalsRowShown="0">
-  <autoFilter ref="B1:C5" xr:uid="{F9836CEE-F6DA-455F-9341-7D9AB58DF929}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F9836CEE-F6DA-455F-9341-7D9AB58DF929}" name="Table11" displayName="Table11" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{F9836CEE-F6DA-455F-9341-7D9AB58DF929}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C8643F64-F779-4B85-AF73-8A40CAEF7DB7}" name="Organisation"/>
     <tableColumn id="2" xr3:uid="{56BFE48A-ECAC-4268-9666-F77D8E2DEF36}" name="Geography"/>
@@ -1600,7 +1594,7 @@
     <tableColumn id="1" xr3:uid="{350C9CD4-4241-43FD-83A7-8360F6FF0316}" name="Programme ID"/>
     <tableColumn id="2" xr3:uid="{0610F4E7-5D53-40E1-BC5B-4ACD1BB55A05}" name="Programme Name"/>
     <tableColumn id="3" xr3:uid="{3D775511-7AF7-4218-982A-354DF17ADE80}" name="FundType_ID"/>
-    <tableColumn id="4" xr3:uid="{0921CF88-B955-41A9-95C7-DD8F1C50484E}" name="Organisation ID"/>
+    <tableColumn id="4" xr3:uid="{0921CF88-B955-41A9-95C7-DD8F1C50484E}" name="Organisation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2034,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" t="s">
         <v>390</v>
       </c>
-      <c r="C1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D1" t="s">
-        <v>392</v>
-      </c>
       <c r="E1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2088,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2099,10 +2093,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2110,10 +2104,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2121,10 +2115,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2132,10 +2126,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2143,10 +2137,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2154,10 +2148,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2165,10 +2159,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2176,10 +2170,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2218,22 +2212,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" t="s">
-        <v>130</v>
-      </c>
       <c r="G1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2241,7 +2235,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="7">
         <v>1326293</v>
@@ -2256,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2264,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7">
         <v>1143705</v>
@@ -2279,7 +2273,7 @@
         <v>50000</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2287,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7">
         <v>1357700</v>
@@ -2302,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2310,7 +2304,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7">
         <v>3608939</v>
@@ -2325,7 +2319,7 @@
         <v>1000000</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2333,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7">
         <v>7092000</v>
@@ -2348,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2356,7 +2350,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2371,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2379,7 +2373,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
         <v>1320000</v>
@@ -2394,7 +2388,7 @@
         <v>100000</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2402,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2417,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2445,490 +2439,490 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2943,7 +2937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3423617-CC86-44FD-A69A-E6E9F4D332E6}">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2965,28 +2959,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" t="s">
         <v>199</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>200</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>201</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>202</v>
       </c>
-      <c r="G1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" t="s">
-        <v>204</v>
-      </c>
       <c r="I1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2994,7 +2988,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1">
         <v>43922</v>
@@ -3003,19 +2997,19 @@
         <v>44104</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3023,7 +3017,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>43922</v>
@@ -3032,19 +3026,19 @@
         <v>44104</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3052,7 +3046,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>44105</v>
@@ -3061,19 +3055,19 @@
         <v>44286</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3081,7 +3075,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>44105</v>
@@ -3090,19 +3084,19 @@
         <v>44286</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3110,7 +3104,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>44105</v>
@@ -3119,19 +3113,19 @@
         <v>44286</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3139,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>44287</v>
@@ -3148,19 +3142,19 @@
         <v>44469</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H7">
         <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3168,7 +3162,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>44287</v>
@@ -3177,19 +3171,19 @@
         <v>44469</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3197,7 +3191,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>44287</v>
@@ -3206,19 +3200,19 @@
         <v>44469</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3226,7 +3220,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>44652</v>
@@ -3235,19 +3229,19 @@
         <v>44834</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H10">
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3255,7 +3249,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>44652</v>
@@ -3264,19 +3258,19 @@
         <v>44834</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3284,7 +3278,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>44652</v>
@@ -3293,19 +3287,19 @@
         <v>44834</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3313,7 +3307,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>44835</v>
@@ -3322,19 +3316,19 @@
         <v>45016</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H13">
         <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3342,7 +3336,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>44835</v>
@@ -3351,19 +3345,19 @@
         <v>45016</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3371,7 +3365,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <v>44835</v>
@@ -3380,19 +3374,19 @@
         <v>45016</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3400,7 +3394,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>45017</v>
@@ -3409,13 +3403,13 @@
         <v>45199</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3426,7 +3420,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>45017</v>
@@ -3435,19 +3429,19 @@
         <v>45199</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3455,7 +3449,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>45017</v>
@@ -3464,13 +3458,13 @@
         <v>45199</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3481,7 +3475,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
         <v>45200</v>
@@ -3490,13 +3484,13 @@
         <v>45382</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3507,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>45200</v>
@@ -3516,13 +3510,13 @@
         <v>45382</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3533,7 +3527,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <v>45200</v>
@@ -3542,19 +3536,19 @@
         <v>45382</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3562,7 +3556,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>45383</v>
@@ -3571,19 +3565,19 @@
         <v>45565</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3591,7 +3585,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <v>45383</v>
@@ -3600,19 +3594,19 @@
         <v>45565</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H23">
         <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3620,7 +3614,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
         <v>45383</v>
@@ -3629,19 +3623,19 @@
         <v>45565</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3649,7 +3643,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <v>45566</v>
@@ -3658,19 +3652,19 @@
         <v>45747</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3678,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
         <v>45566</v>
@@ -3687,19 +3681,19 @@
         <v>45747</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H26">
         <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3707,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
         <v>45566</v>
@@ -3716,19 +3710,19 @@
         <v>45747</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3736,7 +3730,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
         <v>45748</v>
@@ -3745,13 +3739,13 @@
         <v>45930</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3762,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
         <v>45748</v>
@@ -3771,13 +3765,13 @@
         <v>45930</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H29">
         <v>66</v>
@@ -3788,7 +3782,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>45748</v>
@@ -3797,13 +3791,13 @@
         <v>45930</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3814,7 +3808,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
         <v>45931</v>
@@ -3823,13 +3817,13 @@
         <v>46112</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3840,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>45931</v>
@@ -3849,13 +3843,13 @@
         <v>46112</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H32">
         <v>66</v>
@@ -3866,7 +3860,7 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>45931</v>
@@ -3875,13 +3869,13 @@
         <v>46112</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3892,7 +3886,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
         <v>43922</v>
@@ -3901,13 +3895,13 @@
         <v>44104</v>
       </c>
       <c r="E34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3918,7 +3912,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1">
         <v>44105</v>
@@ -3927,13 +3921,13 @@
         <v>44286</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3944,7 +3938,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
         <v>44287</v>
@@ -3953,13 +3947,13 @@
         <v>44469</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3970,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <v>44652</v>
@@ -3979,13 +3973,13 @@
         <v>44834</v>
       </c>
       <c r="E37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3996,7 +3990,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1">
         <v>44835</v>
@@ -4005,13 +3999,13 @@
         <v>45016</v>
       </c>
       <c r="E38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4022,7 +4016,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1">
         <v>45017</v>
@@ -4031,13 +4025,13 @@
         <v>45199</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4048,7 +4042,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1">
         <v>45200</v>
@@ -4057,13 +4051,13 @@
         <v>45382</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4074,7 +4068,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>45383</v>
@@ -4083,13 +4077,13 @@
         <v>45565</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H41">
         <v>66</v>
@@ -4100,7 +4094,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1">
         <v>45566</v>
@@ -4109,13 +4103,13 @@
         <v>45747</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4126,7 +4120,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1">
         <v>45748</v>
@@ -4135,13 +4129,13 @@
         <v>45930</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4152,7 +4146,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C44" s="1">
         <v>45931</v>
@@ -4161,13 +4155,13 @@
         <v>46112</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4178,7 +4172,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C45" s="1">
         <v>43922</v>
@@ -4187,13 +4181,13 @@
         <v>44104</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4204,7 +4198,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C46" s="1">
         <v>43922</v>
@@ -4213,13 +4207,13 @@
         <v>44104</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4230,7 +4224,7 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1">
         <v>44105</v>
@@ -4239,13 +4233,13 @@
         <v>44286</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F47" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4256,7 +4250,7 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1">
         <v>44105</v>
@@ -4265,13 +4259,13 @@
         <v>44286</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F48" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4282,7 +4276,7 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C49" s="1">
         <v>44105</v>
@@ -4291,13 +4285,13 @@
         <v>44286</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4308,7 +4302,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C50" s="1">
         <v>44287</v>
@@ -4317,13 +4311,13 @@
         <v>44469</v>
       </c>
       <c r="E50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4334,7 +4328,7 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C51" s="1">
         <v>44287</v>
@@ -4343,13 +4337,13 @@
         <v>44469</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4360,7 +4354,7 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C52" s="1">
         <v>44287</v>
@@ -4369,13 +4363,13 @@
         <v>44469</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F52" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -4386,7 +4380,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C53" s="1">
         <v>44652</v>
@@ -4395,13 +4389,13 @@
         <v>44834</v>
       </c>
       <c r="E53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -4412,7 +4406,7 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C54" s="1">
         <v>44652</v>
@@ -4421,13 +4415,13 @@
         <v>44834</v>
       </c>
       <c r="E54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -4438,7 +4432,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C55" s="1">
         <v>44652</v>
@@ -4447,13 +4441,13 @@
         <v>44834</v>
       </c>
       <c r="E55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -4464,7 +4458,7 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C56" s="1">
         <v>44835</v>
@@ -4473,13 +4467,13 @@
         <v>45016</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4490,7 +4484,7 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C57" s="1">
         <v>44835</v>
@@ -4499,13 +4493,13 @@
         <v>45016</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F57" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -4516,7 +4510,7 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58" s="1">
         <v>44835</v>
@@ -4525,13 +4519,13 @@
         <v>45016</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F58" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -4542,7 +4536,7 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C59" s="1">
         <v>45017</v>
@@ -4551,13 +4545,13 @@
         <v>45199</v>
       </c>
       <c r="E59" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -4568,7 +4562,7 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1">
         <v>45017</v>
@@ -4577,13 +4571,13 @@
         <v>45199</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F60" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -4594,7 +4588,7 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C61" s="1">
         <v>45017</v>
@@ -4603,13 +4597,13 @@
         <v>45199</v>
       </c>
       <c r="E61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F61" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -4620,7 +4614,7 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C62" s="1">
         <v>45200</v>
@@ -4629,13 +4623,13 @@
         <v>45382</v>
       </c>
       <c r="E62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -4646,7 +4640,7 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C63" s="1">
         <v>45200</v>
@@ -4655,13 +4649,13 @@
         <v>45382</v>
       </c>
       <c r="E63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F63" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -4672,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C64" s="1">
         <v>45200</v>
@@ -4681,13 +4675,13 @@
         <v>45382</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F64" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -4698,7 +4692,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C65" s="1">
         <v>45383</v>
@@ -4707,13 +4701,13 @@
         <v>45565</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -4724,7 +4718,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C66" s="1">
         <v>45383</v>
@@ -4733,13 +4727,13 @@
         <v>45565</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H66">
         <v>66</v>
@@ -4750,7 +4744,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C67" s="1">
         <v>45383</v>
@@ -4759,13 +4753,13 @@
         <v>45565</v>
       </c>
       <c r="E67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F67" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -4776,7 +4770,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C68" s="1">
         <v>45566</v>
@@ -4785,13 +4779,13 @@
         <v>45747</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -4802,7 +4796,7 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C69" s="1">
         <v>45566</v>
@@ -4811,13 +4805,13 @@
         <v>45747</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H69">
         <v>66</v>
@@ -4828,7 +4822,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C70" s="1">
         <v>45566</v>
@@ -4837,13 +4831,13 @@
         <v>45747</v>
       </c>
       <c r="E70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -4854,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C71" s="1">
         <v>45748</v>
@@ -4863,13 +4857,13 @@
         <v>45930</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G71" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -4880,7 +4874,7 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1">
         <v>45748</v>
@@ -4889,13 +4883,13 @@
         <v>45930</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G72" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -4906,7 +4900,7 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C73" s="1">
         <v>45748</v>
@@ -4915,13 +4909,13 @@
         <v>45930</v>
       </c>
       <c r="E73" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -4932,7 +4926,7 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C74" s="1">
         <v>45931</v>
@@ -4941,13 +4935,13 @@
         <v>46112</v>
       </c>
       <c r="E74" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G74" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -4958,7 +4952,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C75" s="1">
         <v>45931</v>
@@ -4967,13 +4961,13 @@
         <v>46112</v>
       </c>
       <c r="E75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F75" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G75" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -4984,7 +4978,7 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C76" s="1">
         <v>45931</v>
@@ -4993,13 +4987,13 @@
         <v>46112</v>
       </c>
       <c r="E76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G76" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -5010,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C77" s="1">
         <v>43922</v>
@@ -5019,13 +5013,13 @@
         <v>44104</v>
       </c>
       <c r="E77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -5036,7 +5030,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C78" s="1">
         <v>44105</v>
@@ -5045,13 +5039,13 @@
         <v>44286</v>
       </c>
       <c r="E78" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F78" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -5062,7 +5056,7 @@
         <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C79" s="1">
         <v>44287</v>
@@ -5071,13 +5065,13 @@
         <v>44469</v>
       </c>
       <c r="E79" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G79" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -5088,7 +5082,7 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C80" s="1">
         <v>44652</v>
@@ -5097,13 +5091,13 @@
         <v>44834</v>
       </c>
       <c r="E80" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F80" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G80" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -5114,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C81" s="1">
         <v>44835</v>
@@ -5123,13 +5117,13 @@
         <v>45016</v>
       </c>
       <c r="E81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F81" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G81" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -5140,7 +5134,7 @@
         <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C82" s="1">
         <v>45017</v>
@@ -5149,13 +5143,13 @@
         <v>45199</v>
       </c>
       <c r="E82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G82" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -5166,7 +5160,7 @@
         <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C83" s="1">
         <v>45200</v>
@@ -5175,13 +5169,13 @@
         <v>45382</v>
       </c>
       <c r="E83" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F83" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G83" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H83">
         <v>300</v>
@@ -5192,7 +5186,7 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C84" s="1">
         <v>45383</v>
@@ -5201,13 +5195,13 @@
         <v>45565</v>
       </c>
       <c r="E84" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F84" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G84" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -5218,7 +5212,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C85" s="1">
         <v>45566</v>
@@ -5227,13 +5221,13 @@
         <v>45747</v>
       </c>
       <c r="E85" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -5244,7 +5238,7 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C86" s="1">
         <v>45748</v>
@@ -5253,13 +5247,13 @@
         <v>45930</v>
       </c>
       <c r="E86" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F86" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G86" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5270,7 +5264,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C87" s="1">
         <v>45931</v>
@@ -5279,13 +5273,13 @@
         <v>46112</v>
       </c>
       <c r="E87" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F87" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5296,7 +5290,7 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C88" s="1">
         <v>43922</v>
@@ -5305,13 +5299,13 @@
         <v>44104</v>
       </c>
       <c r="E88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F88" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -5322,7 +5316,7 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C89" s="1">
         <v>43922</v>
@@ -5331,13 +5325,13 @@
         <v>44104</v>
       </c>
       <c r="E89" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F89" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5348,7 +5342,7 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C90" s="1">
         <v>44105</v>
@@ -5357,13 +5351,13 @@
         <v>44286</v>
       </c>
       <c r="E90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F90" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G90" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5374,7 +5368,7 @@
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C91" s="1">
         <v>44105</v>
@@ -5383,13 +5377,13 @@
         <v>44286</v>
       </c>
       <c r="E91" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F91" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G91" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -5400,7 +5394,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C92" s="1">
         <v>44105</v>
@@ -5409,13 +5403,13 @@
         <v>44286</v>
       </c>
       <c r="E92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F92" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G92" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -5426,7 +5420,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C93" s="1">
         <v>44287</v>
@@ -5435,13 +5429,13 @@
         <v>44469</v>
       </c>
       <c r="E93" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F93" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5452,7 +5446,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C94" s="1">
         <v>44287</v>
@@ -5461,13 +5455,13 @@
         <v>44469</v>
       </c>
       <c r="E94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5478,7 +5472,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C95" s="1">
         <v>44287</v>
@@ -5487,13 +5481,13 @@
         <v>44469</v>
       </c>
       <c r="E95" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5504,7 +5498,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C96" s="1">
         <v>44652</v>
@@ -5513,13 +5507,13 @@
         <v>44834</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F96" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G96" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5530,7 +5524,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C97" s="1">
         <v>44652</v>
@@ -5539,13 +5533,13 @@
         <v>44834</v>
       </c>
       <c r="E97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F97" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G97" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5556,7 +5550,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C98" s="1">
         <v>44652</v>
@@ -5565,13 +5559,13 @@
         <v>44834</v>
       </c>
       <c r="E98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F98" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G98" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5582,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C99" s="1">
         <v>44835</v>
@@ -5591,13 +5585,13 @@
         <v>45016</v>
       </c>
       <c r="E99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G99" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5608,7 +5602,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C100" s="1">
         <v>44835</v>
@@ -5617,13 +5611,13 @@
         <v>45016</v>
       </c>
       <c r="E100" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F100" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G100" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5634,7 +5628,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C101" s="1">
         <v>44835</v>
@@ -5643,13 +5637,13 @@
         <v>45016</v>
       </c>
       <c r="E101" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F101" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G101" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5660,7 +5654,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C102" s="1">
         <v>45017</v>
@@ -5669,13 +5663,13 @@
         <v>45199</v>
       </c>
       <c r="E102" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G102" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5686,7 +5680,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C103" s="1">
         <v>45017</v>
@@ -5695,13 +5689,13 @@
         <v>45199</v>
       </c>
       <c r="E103" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5712,7 +5706,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C104" s="1">
         <v>45017</v>
@@ -5721,13 +5715,13 @@
         <v>45199</v>
       </c>
       <c r="E104" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G104" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5738,7 +5732,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C105" s="1">
         <v>45200</v>
@@ -5747,13 +5741,13 @@
         <v>45382</v>
       </c>
       <c r="E105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G105" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -5764,7 +5758,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C106" s="1">
         <v>45200</v>
@@ -5773,13 +5767,13 @@
         <v>45382</v>
       </c>
       <c r="E106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G106" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -5790,7 +5784,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C107" s="1">
         <v>45200</v>
@@ -5799,13 +5793,13 @@
         <v>45382</v>
       </c>
       <c r="E107" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G107" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -5816,7 +5810,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C108" s="1">
         <v>45383</v>
@@ -5825,13 +5819,13 @@
         <v>45565</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G108" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -5842,7 +5836,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C109" s="1">
         <v>45383</v>
@@ -5851,13 +5845,13 @@
         <v>45565</v>
       </c>
       <c r="E109" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F109" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G109" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -5868,7 +5862,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C110" s="1">
         <v>45383</v>
@@ -5877,13 +5871,13 @@
         <v>45565</v>
       </c>
       <c r="E110" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G110" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -5894,7 +5888,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C111" s="1">
         <v>45566</v>
@@ -5903,13 +5897,13 @@
         <v>45747</v>
       </c>
       <c r="E111" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F111" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G111" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -5920,7 +5914,7 @@
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C112" s="1">
         <v>45566</v>
@@ -5929,13 +5923,13 @@
         <v>45747</v>
       </c>
       <c r="E112" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G112" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -5946,7 +5940,7 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C113" s="1">
         <v>45566</v>
@@ -5955,13 +5949,13 @@
         <v>45747</v>
       </c>
       <c r="E113" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F113" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G113" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5972,7 +5966,7 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C114" s="1">
         <v>45748</v>
@@ -5981,13 +5975,13 @@
         <v>45930</v>
       </c>
       <c r="E114" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F114" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G114" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5998,7 +5992,7 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C115" s="1">
         <v>45748</v>
@@ -6007,13 +6001,13 @@
         <v>45930</v>
       </c>
       <c r="E115" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F115" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G115" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6024,7 +6018,7 @@
         <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C116" s="1">
         <v>45748</v>
@@ -6033,13 +6027,13 @@
         <v>45930</v>
       </c>
       <c r="E116" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F116" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G116" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -6050,7 +6044,7 @@
         <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C117" s="1">
         <v>45931</v>
@@ -6059,13 +6053,13 @@
         <v>46112</v>
       </c>
       <c r="E117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F117" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G117" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -6076,7 +6070,7 @@
         <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C118" s="1">
         <v>45931</v>
@@ -6085,13 +6079,13 @@
         <v>46112</v>
       </c>
       <c r="E118" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F118" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G118" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -6102,7 +6096,7 @@
         <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C119" s="1">
         <v>45931</v>
@@ -6111,13 +6105,13 @@
         <v>46112</v>
       </c>
       <c r="E119" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F119" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G119" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -6152,522 +6146,522 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B43" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B64" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B65" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6706,34 +6700,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" t="s">
         <v>281</v>
       </c>
-      <c r="G1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H1" t="s">
-        <v>283</v>
-      </c>
       <c r="I1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6741,7 +6735,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
         <v>43922</v>
@@ -6750,22 +6744,22 @@
         <v>43951</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I2">
         <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6773,7 +6767,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>43952</v>
@@ -6782,22 +6776,22 @@
         <v>43982</v>
       </c>
       <c r="F3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I3">
         <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6805,7 +6799,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
         <v>43983</v>
@@ -6814,22 +6808,22 @@
         <v>44012</v>
       </c>
       <c r="F4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I4">
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6837,7 +6831,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>44013</v>
@@ -6846,22 +6840,22 @@
         <v>44043</v>
       </c>
       <c r="F5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6869,7 +6863,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>44044</v>
@@ -6878,22 +6872,22 @@
         <v>44074</v>
       </c>
       <c r="F6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I6">
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6901,7 +6895,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>44075</v>
@@ -6910,22 +6904,22 @@
         <v>44104</v>
       </c>
       <c r="F7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I7">
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6933,7 +6927,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>44105</v>
@@ -6942,22 +6936,22 @@
         <v>44135</v>
       </c>
       <c r="F8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I8">
         <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6965,7 +6959,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>44136</v>
@@ -6974,22 +6968,22 @@
         <v>44165</v>
       </c>
       <c r="F9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I9">
         <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6997,7 +6991,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>44166</v>
@@ -7006,22 +7000,22 @@
         <v>44196</v>
       </c>
       <c r="F10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I10">
         <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7029,7 +7023,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>44197</v>
@@ -7038,22 +7032,22 @@
         <v>44227</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I11">
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7061,7 +7055,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>44228</v>
@@ -7070,22 +7064,22 @@
         <v>44255</v>
       </c>
       <c r="F12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I12">
         <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7093,7 +7087,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>44256</v>
@@ -7102,22 +7096,22 @@
         <v>44286</v>
       </c>
       <c r="F13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I13">
         <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7125,7 +7119,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1">
         <v>44287</v>
@@ -7134,22 +7128,22 @@
         <v>44316</v>
       </c>
       <c r="F14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I14">
         <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7157,7 +7151,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>44317</v>
@@ -7166,22 +7160,22 @@
         <v>44347</v>
       </c>
       <c r="F15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I15">
         <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7189,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>44348</v>
@@ -7198,19 +7192,19 @@
         <v>44377</v>
       </c>
       <c r="F16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I16">
         <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -7218,7 +7212,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>44378</v>
@@ -7227,19 +7221,19 @@
         <v>44408</v>
       </c>
       <c r="F17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -7247,7 +7241,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1">
         <v>44409</v>
@@ -7256,19 +7250,19 @@
         <v>44439</v>
       </c>
       <c r="F18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I18">
         <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -7276,7 +7270,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1">
         <v>44440</v>
@@ -7285,19 +7279,19 @@
         <v>44469</v>
       </c>
       <c r="F19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I19">
         <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -7314,19 +7308,19 @@
         <v>44500</v>
       </c>
       <c r="F20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I20">
         <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -7343,22 +7337,22 @@
         <v>44530</v>
       </c>
       <c r="F21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I21">
         <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -7375,22 +7369,22 @@
         <v>44561</v>
       </c>
       <c r="F22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I22">
         <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -7407,22 +7401,22 @@
         <v>44227</v>
       </c>
       <c r="F23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I23">
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -7439,22 +7433,22 @@
         <v>44620</v>
       </c>
       <c r="F24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I24">
         <v>71</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -7471,22 +7465,22 @@
         <v>44651</v>
       </c>
       <c r="F25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I25">
         <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7503,22 +7497,22 @@
         <v>44681</v>
       </c>
       <c r="F26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I26">
         <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -7535,22 +7529,22 @@
         <v>44712</v>
       </c>
       <c r="F27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -7596,43 +7590,43 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" t="s">
         <v>286</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>287</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>288</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>289</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>290</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>291</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>292</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>293</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>294</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>295</v>
-      </c>
-      <c r="N1" t="s">
-        <v>296</v>
-      </c>
-      <c r="O1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -7643,40 +7637,40 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" t="s">
         <v>298</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J2" t="s">
         <v>299</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>300</v>
       </c>
-      <c r="G2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>301</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>302</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>303</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>304</v>
-      </c>
-      <c r="N2" t="s">
-        <v>305</v>
-      </c>
-      <c r="O2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -7687,40 +7681,40 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K3" t="s">
         <v>307</v>
       </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
         <v>308</v>
       </c>
-      <c r="F3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" t="s">
-        <v>310</v>
-      </c>
-      <c r="J3" t="s">
-        <v>301</v>
-      </c>
-      <c r="K3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L3" t="s">
-        <v>310</v>
-      </c>
       <c r="M3" t="s">
+        <v>302</v>
+      </c>
+      <c r="N3" t="s">
+        <v>303</v>
+      </c>
+      <c r="O3" t="s">
         <v>304</v>
-      </c>
-      <c r="N3" t="s">
-        <v>305</v>
-      </c>
-      <c r="O3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -7731,40 +7725,40 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J4" t="s">
         <v>311</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>312</v>
       </c>
-      <c r="F4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" t="s">
-        <v>370</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>313</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
+        <v>311</v>
+      </c>
+      <c r="N4" t="s">
         <v>314</v>
       </c>
-      <c r="L4" t="s">
-        <v>315</v>
-      </c>
-      <c r="M4" t="s">
-        <v>313</v>
-      </c>
-      <c r="N4" t="s">
-        <v>316</v>
-      </c>
       <c r="O4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -7775,40 +7769,40 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" t="s">
+        <v>308</v>
+      </c>
+      <c r="J5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K5" t="s">
         <v>317</v>
       </c>
-      <c r="E5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" t="s">
-        <v>310</v>
-      </c>
-      <c r="J5" t="s">
-        <v>313</v>
-      </c>
-      <c r="K5" t="s">
-        <v>319</v>
-      </c>
       <c r="L5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -7819,40 +7813,40 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" t="s">
         <v>320</v>
       </c>
-      <c r="E6" t="s">
+      <c r="L6" t="s">
+        <v>301</v>
+      </c>
+      <c r="M6" t="s">
+        <v>302</v>
+      </c>
+      <c r="N6" t="s">
         <v>321</v>
       </c>
-      <c r="F6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" t="s">
-        <v>303</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>304</v>
-      </c>
-      <c r="K6" t="s">
-        <v>322</v>
-      </c>
-      <c r="L6" t="s">
-        <v>303</v>
-      </c>
-      <c r="M6" t="s">
-        <v>304</v>
-      </c>
-      <c r="N6" t="s">
-        <v>323</v>
-      </c>
-      <c r="O6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -7863,40 +7857,40 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M7" t="s">
+        <v>299</v>
+      </c>
+      <c r="N7" t="s">
+        <v>314</v>
+      </c>
+      <c r="O7" t="s">
         <v>324</v>
-      </c>
-      <c r="E7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" t="s">
-        <v>310</v>
-      </c>
-      <c r="J7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M7" t="s">
-        <v>301</v>
-      </c>
-      <c r="N7" t="s">
-        <v>316</v>
-      </c>
-      <c r="O7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7907,40 +7901,40 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J8" t="s">
+        <v>311</v>
+      </c>
+      <c r="K8" t="s">
         <v>327</v>
       </c>
-      <c r="E8" t="s">
+      <c r="L8" t="s">
+        <v>301</v>
+      </c>
+      <c r="M8" t="s">
+        <v>302</v>
+      </c>
+      <c r="N8" t="s">
+        <v>303</v>
+      </c>
+      <c r="O8" t="s">
         <v>328</v>
-      </c>
-      <c r="F8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" t="s">
-        <v>310</v>
-      </c>
-      <c r="J8" t="s">
-        <v>313</v>
-      </c>
-      <c r="K8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L8" t="s">
-        <v>303</v>
-      </c>
-      <c r="M8" t="s">
-        <v>304</v>
-      </c>
-      <c r="N8" t="s">
-        <v>305</v>
-      </c>
-      <c r="O8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -7951,40 +7945,40 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" t="s">
+        <v>308</v>
+      </c>
+      <c r="J9" t="s">
+        <v>299</v>
+      </c>
+      <c r="K9" t="s">
         <v>331</v>
       </c>
-      <c r="E9" t="s">
+      <c r="L9" t="s">
         <v>332</v>
       </c>
-      <c r="F9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" t="s">
-        <v>310</v>
-      </c>
-      <c r="J9" t="s">
-        <v>301</v>
-      </c>
-      <c r="K9" t="s">
-        <v>333</v>
-      </c>
-      <c r="L9" t="s">
-        <v>334</v>
-      </c>
       <c r="M9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7993,43 +7987,43 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" t="s">
+        <v>308</v>
+      </c>
+      <c r="J10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K10" t="s">
+        <v>334</v>
+      </c>
+      <c r="L10" t="s">
+        <v>301</v>
+      </c>
+      <c r="M10" t="s">
+        <v>302</v>
+      </c>
+      <c r="N10" t="s">
         <v>335</v>
       </c>
-      <c r="E10" t="s">
-        <v>312</v>
-      </c>
-      <c r="F10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" t="s">
-        <v>310</v>
-      </c>
-      <c r="J10" t="s">
-        <v>313</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>336</v>
-      </c>
-      <c r="L10" t="s">
-        <v>303</v>
-      </c>
-      <c r="M10" t="s">
-        <v>304</v>
-      </c>
-      <c r="N10" t="s">
-        <v>337</v>
-      </c>
-      <c r="O10" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -8038,43 +8032,43 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" t="s">
+        <v>301</v>
+      </c>
+      <c r="J11" t="s">
+        <v>299</v>
+      </c>
+      <c r="K11" t="s">
         <v>339</v>
       </c>
-      <c r="E11" t="s">
+      <c r="L11" t="s">
+        <v>301</v>
+      </c>
+      <c r="M11" t="s">
+        <v>302</v>
+      </c>
+      <c r="N11" t="s">
+        <v>321</v>
+      </c>
+      <c r="O11" t="s">
         <v>340</v>
-      </c>
-      <c r="F11" t="s">
-        <v>300</v>
-      </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" t="s">
-        <v>303</v>
-      </c>
-      <c r="J11" t="s">
-        <v>301</v>
-      </c>
-      <c r="K11" t="s">
-        <v>341</v>
-      </c>
-      <c r="L11" t="s">
-        <v>303</v>
-      </c>
-      <c r="M11" t="s">
-        <v>304</v>
-      </c>
-      <c r="N11" t="s">
-        <v>323</v>
-      </c>
-      <c r="O11" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -8083,43 +8077,43 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" t="s">
+        <v>301</v>
+      </c>
+      <c r="J12" t="s">
+        <v>311</v>
+      </c>
+      <c r="K12" t="s">
         <v>343</v>
       </c>
-      <c r="E12" t="s">
+      <c r="L12" t="s">
+        <v>332</v>
+      </c>
+      <c r="M12" t="s">
+        <v>299</v>
+      </c>
+      <c r="N12" t="s">
+        <v>303</v>
+      </c>
+      <c r="O12" t="s">
         <v>344</v>
-      </c>
-      <c r="F12" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" t="s">
-        <v>303</v>
-      </c>
-      <c r="J12" t="s">
-        <v>313</v>
-      </c>
-      <c r="K12" t="s">
-        <v>345</v>
-      </c>
-      <c r="L12" t="s">
-        <v>334</v>
-      </c>
-      <c r="M12" t="s">
-        <v>301</v>
-      </c>
-      <c r="N12" t="s">
-        <v>305</v>
-      </c>
-      <c r="O12" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -8128,43 +8122,43 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -8173,43 +8167,43 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" t="s">
+        <v>313</v>
+      </c>
+      <c r="J14" t="s">
+        <v>311</v>
+      </c>
+      <c r="K14" t="s">
         <v>349</v>
       </c>
-      <c r="E14" t="s">
-        <v>350</v>
-      </c>
-      <c r="F14" t="s">
-        <v>300</v>
-      </c>
-      <c r="G14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" t="s">
-        <v>315</v>
-      </c>
-      <c r="J14" t="s">
-        <v>313</v>
-      </c>
-      <c r="K14" t="s">
-        <v>351</v>
-      </c>
       <c r="L14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -8218,43 +8212,43 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
+        <v>350</v>
+      </c>
+      <c r="E15" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" t="s">
+        <v>298</v>
+      </c>
+      <c r="G15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" t="s">
+        <v>313</v>
+      </c>
+      <c r="J15" t="s">
+        <v>311</v>
+      </c>
+      <c r="K15" t="s">
         <v>352</v>
       </c>
-      <c r="E15" t="s">
-        <v>353</v>
-      </c>
-      <c r="F15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" t="s">
-        <v>315</v>
-      </c>
-      <c r="J15" t="s">
-        <v>313</v>
-      </c>
-      <c r="K15" t="s">
-        <v>354</v>
-      </c>
       <c r="L15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -8263,43 +8257,43 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" t="s">
+        <v>298</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s">
+        <v>332</v>
+      </c>
+      <c r="J16" t="s">
+        <v>302</v>
+      </c>
+      <c r="K16" t="s">
+        <v>354</v>
+      </c>
+      <c r="L16" t="s">
         <v>355</v>
       </c>
-      <c r="E16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F16" t="s">
-        <v>300</v>
-      </c>
-      <c r="G16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" t="s">
-        <v>334</v>
-      </c>
-      <c r="J16" t="s">
-        <v>304</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
+        <v>302</v>
+      </c>
+      <c r="N16" t="s">
+        <v>303</v>
+      </c>
+      <c r="O16" t="s">
         <v>356</v>
-      </c>
-      <c r="L16" t="s">
-        <v>357</v>
-      </c>
-      <c r="M16" t="s">
-        <v>304</v>
-      </c>
-      <c r="N16" t="s">
-        <v>305</v>
-      </c>
-      <c r="O16" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -8308,43 +8302,43 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -8353,43 +8347,43 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -8398,43 +8392,43 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
+        <v>361</v>
+      </c>
+      <c r="E19" t="s">
+        <v>362</v>
+      </c>
+      <c r="F19" t="s">
+        <v>298</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" t="s">
+        <v>308</v>
+      </c>
+      <c r="J19" t="s">
+        <v>299</v>
+      </c>
+      <c r="K19" t="s">
         <v>363</v>
       </c>
-      <c r="E19" t="s">
-        <v>364</v>
-      </c>
-      <c r="F19" t="s">
-        <v>300</v>
-      </c>
-      <c r="G19" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" t="s">
-        <v>310</v>
-      </c>
-      <c r="J19" t="s">
-        <v>301</v>
-      </c>
-      <c r="K19" t="s">
-        <v>365</v>
-      </c>
       <c r="L19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M19" t="s">
+        <v>302</v>
+      </c>
+      <c r="N19" t="s">
+        <v>321</v>
+      </c>
+      <c r="O19" t="s">
         <v>304</v>
-      </c>
-      <c r="N19" t="s">
-        <v>323</v>
-      </c>
-      <c r="O19" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -8443,43 +8437,43 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J20" t="s">
+        <v>299</v>
+      </c>
+      <c r="K20" t="s">
+        <v>365</v>
+      </c>
+      <c r="L20" t="s">
         <v>301</v>
       </c>
-      <c r="K20" t="s">
-        <v>367</v>
-      </c>
-      <c r="L20" t="s">
-        <v>303</v>
-      </c>
       <c r="M20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -8488,43 +8482,43 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" t="s">
+        <v>298</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" t="s">
         <v>368</v>
       </c>
-      <c r="E21" t="s">
-        <v>350</v>
-      </c>
-      <c r="F21" t="s">
-        <v>300</v>
-      </c>
-      <c r="G21" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" t="s">
-        <v>370</v>
-      </c>
       <c r="J21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -8533,43 +8527,43 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -8578,43 +8572,43 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
+        <v>371</v>
+      </c>
+      <c r="E23" t="s">
+        <v>372</v>
+      </c>
+      <c r="F23" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" t="s">
+        <v>308</v>
+      </c>
+      <c r="J23" t="s">
+        <v>299</v>
+      </c>
+      <c r="K23" t="s">
         <v>373</v>
       </c>
-      <c r="E23" t="s">
-        <v>374</v>
-      </c>
-      <c r="F23" t="s">
-        <v>300</v>
-      </c>
-      <c r="G23" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" t="s">
-        <v>310</v>
-      </c>
-      <c r="J23" t="s">
-        <v>301</v>
-      </c>
-      <c r="K23" t="s">
-        <v>375</v>
-      </c>
       <c r="L23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M23" t="s">
+        <v>302</v>
+      </c>
+      <c r="N23" t="s">
+        <v>303</v>
+      </c>
+      <c r="O23" t="s">
         <v>304</v>
-      </c>
-      <c r="N23" t="s">
-        <v>305</v>
-      </c>
-      <c r="O23" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -8623,43 +8617,43 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J24" t="s">
+        <v>302</v>
+      </c>
+      <c r="K24" t="s">
+        <v>375</v>
+      </c>
+      <c r="L24" t="s">
+        <v>301</v>
+      </c>
+      <c r="M24" t="s">
+        <v>302</v>
+      </c>
+      <c r="N24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O24" t="s">
         <v>304</v>
-      </c>
-      <c r="K24" t="s">
-        <v>377</v>
-      </c>
-      <c r="L24" t="s">
-        <v>303</v>
-      </c>
-      <c r="M24" t="s">
-        <v>304</v>
-      </c>
-      <c r="N24" t="s">
-        <v>337</v>
-      </c>
-      <c r="O24" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -8668,43 +8662,43 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
+        <v>376</v>
+      </c>
+      <c r="E25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F25" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" t="s">
+        <v>313</v>
+      </c>
+      <c r="J25" t="s">
+        <v>302</v>
+      </c>
+      <c r="K25" t="s">
         <v>378</v>
       </c>
-      <c r="E25" t="s">
-        <v>379</v>
-      </c>
-      <c r="F25" t="s">
-        <v>300</v>
-      </c>
-      <c r="G25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" t="s">
-        <v>315</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
+        <v>301</v>
+      </c>
+      <c r="M25" t="s">
+        <v>302</v>
+      </c>
+      <c r="N25" t="s">
+        <v>314</v>
+      </c>
+      <c r="O25" t="s">
         <v>304</v>
-      </c>
-      <c r="K25" t="s">
-        <v>380</v>
-      </c>
-      <c r="L25" t="s">
-        <v>303</v>
-      </c>
-      <c r="M25" t="s">
-        <v>304</v>
-      </c>
-      <c r="N25" t="s">
-        <v>316</v>
-      </c>
-      <c r="O25" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -8713,43 +8707,43 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
+        <v>379</v>
+      </c>
+      <c r="E26" t="s">
+        <v>380</v>
+      </c>
+      <c r="F26" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" t="s">
+        <v>368</v>
+      </c>
+      <c r="J26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" t="s">
         <v>381</v>
       </c>
-      <c r="E26" t="s">
+      <c r="L26" t="s">
+        <v>308</v>
+      </c>
+      <c r="M26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N26" t="s">
         <v>382</v>
       </c>
-      <c r="F26" t="s">
-        <v>300</v>
-      </c>
-      <c r="G26" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" t="s">
-        <v>370</v>
-      </c>
-      <c r="J26" t="s">
-        <v>301</v>
-      </c>
-      <c r="K26" t="s">
-        <v>383</v>
-      </c>
-      <c r="L26" t="s">
-        <v>310</v>
-      </c>
-      <c r="M26" t="s">
-        <v>301</v>
-      </c>
-      <c r="N26" t="s">
-        <v>384</v>
-      </c>
       <c r="O26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -8758,43 +8752,43 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" t="s">
+        <v>384</v>
+      </c>
+      <c r="F27" t="s">
+        <v>298</v>
+      </c>
+      <c r="G27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" t="s">
+        <v>313</v>
+      </c>
+      <c r="J27" t="s">
+        <v>302</v>
+      </c>
+      <c r="K27" t="s">
         <v>385</v>
       </c>
-      <c r="E27" t="s">
-        <v>386</v>
-      </c>
-      <c r="F27" t="s">
-        <v>300</v>
-      </c>
-      <c r="G27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" t="s">
-        <v>315</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
+        <v>332</v>
+      </c>
+      <c r="M27" t="s">
+        <v>302</v>
+      </c>
+      <c r="N27" t="s">
+        <v>321</v>
+      </c>
+      <c r="O27" t="s">
         <v>304</v>
-      </c>
-      <c r="K27" t="s">
-        <v>387</v>
-      </c>
-      <c r="L27" t="s">
-        <v>334</v>
-      </c>
-      <c r="M27" t="s">
-        <v>304</v>
-      </c>
-      <c r="N27" t="s">
-        <v>323</v>
-      </c>
-      <c r="O27" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -8803,43 +8797,43 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E28" t="s">
+        <v>319</v>
+      </c>
+      <c r="F28" t="s">
+        <v>298</v>
+      </c>
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" t="s">
+        <v>308</v>
+      </c>
+      <c r="J28" t="s">
+        <v>299</v>
+      </c>
+      <c r="K28" t="s">
+        <v>387</v>
+      </c>
+      <c r="L28" t="s">
+        <v>301</v>
+      </c>
+      <c r="M28" t="s">
+        <v>302</v>
+      </c>
+      <c r="N28" t="s">
         <v>321</v>
       </c>
-      <c r="F28" t="s">
-        <v>300</v>
-      </c>
-      <c r="G28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" t="s">
-        <v>310</v>
-      </c>
-      <c r="J28" t="s">
-        <v>301</v>
-      </c>
-      <c r="K28" t="s">
-        <v>389</v>
-      </c>
-      <c r="L28" t="s">
-        <v>303</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>304</v>
-      </c>
-      <c r="N28" t="s">
-        <v>323</v>
-      </c>
-      <c r="O28" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -8853,52 +8847,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BD9F43-3982-400C-92B9-F1B3DE3F72C3}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8913,8 +8888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136BCEBD-759D-42DA-A155-48E4E8958367}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8936,7 +8911,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8944,13 +8919,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -9135,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9143,16 +9118,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9160,16 +9135,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9177,16 +9152,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9194,16 +9169,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -9211,16 +9186,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9228,7 +9203,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="10">
         <v>1234567890</v>
@@ -9237,7 +9212,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9245,16 +9220,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -9262,16 +9237,16 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9279,7 +9254,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="10">
         <v>1234567890</v>
@@ -9288,7 +9263,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -9296,16 +9271,16 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9313,16 +9288,16 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9330,7 +9305,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="10">
         <v>1234567890</v>
@@ -9339,7 +9314,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9347,16 +9322,16 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9364,16 +9339,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -9381,7 +9356,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="10">
         <v>1234567890</v>
@@ -9390,7 +9365,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -9436,13 +9411,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9453,16 +9428,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9473,16 +9448,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="9">
         <v>607784</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9493,16 +9468,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
         <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
       </c>
       <c r="E4" s="9">
         <v>123456</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9513,16 +9488,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5" s="9">
         <v>654321</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9533,16 +9508,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9553,16 +9528,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9573,16 +9548,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9593,16 +9568,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9613,13 +9588,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9630,13 +9605,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9647,16 +9622,16 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9667,16 +9642,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9687,16 +9662,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9707,16 +9682,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s">
         <v>123</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9727,10 +9702,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9741,10 +9716,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -9780,7 +9755,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -9789,27 +9764,27 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
       <c r="H1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -9818,27 +9793,27 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -9847,24 +9822,24 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -9873,27 +9848,27 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -9902,24 +9877,24 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -9928,24 +9903,24 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -9954,21 +9929,21 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -9977,27 +9952,27 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -10006,19 +9981,19 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -10115,45 +10090,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -10165,10 +10140,10 @@
         <v>46082</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -10182,7 +10157,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -10194,10 +10169,10 @@
         <v>46082</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -10211,7 +10186,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -10223,10 +10198,10 @@
         <v>46082</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -10287,31 +10262,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>87</v>
-      </c>
-      <c r="I1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -10319,28 +10294,28 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>91</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="J2" s="12">
         <v>0</v>
@@ -10351,28 +10326,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>93</v>
       </c>
       <c r="H3" s="16">
         <v>43300</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J3" s="12">
         <v>0</v>
@@ -10383,28 +10358,28 @@
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="J4" s="12">
         <v>0</v>
@@ -10415,28 +10390,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="J5" s="12">
         <v>0</v>
@@ -10447,28 +10422,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
@@ -10479,28 +10454,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="J7" s="12">
         <v>0</v>
@@ -10511,28 +10486,28 @@
         <v>4</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" s="18">
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H8" s="18">
         <v>113152</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J8" s="12">
         <v>0</v>
@@ -10543,28 +10518,28 @@
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="16">
         <v>0</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H9" s="16">
         <v>76166</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J9" s="12">
         <v>0</v>
@@ -10575,28 +10550,28 @@
         <v>4</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F10" s="18">
         <v>0</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H10" s="18">
         <v>0</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J10" s="12">
         <v>0</v>
@@ -10607,28 +10582,28 @@
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="H11" s="16">
         <v>0</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J11" s="12">
         <v>0</v>
@@ -10639,28 +10614,28 @@
         <v>4</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F12" s="19">
         <v>0</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H12" s="19">
         <v>60000</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J12" s="12">
         <v>0</v>
@@ -10671,28 +10646,28 @@
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="F13" s="20">
         <v>0</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="20">
         <v>0</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J13" s="12">
         <v>0</v>
@@ -10703,28 +10678,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F14" s="20">
         <v>0</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H14" s="12">
         <v>0</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J14" s="23">
         <v>3344</v>
@@ -10735,28 +10710,28 @@
         <v>4</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F15" s="24">
         <v>1122</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H15" s="12">
         <v>0</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J15" s="12">
         <v>0</v>

--- a/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
+++ b/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DobbsC\PycharmProjects\funding-service-design-post-award-data-store\tests\controller_tests\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SnapeN\Dev\funding-service-design-post-award-data-store\tests\controller_tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D7EC74-129D-40B2-A2D2-B2799102D3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D641CDC-9D41-493B-AAC9-D4F78ED3044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="7890" windowWidth="34245" windowHeight="11385" activeTab="2" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
+    <workbookView xWindow="-28920" yWindow="4500" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="8" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission_Ref" sheetId="20" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="407">
   <si>
     <t>Submission ID</t>
   </si>
@@ -302,9 +302,6 @@
     <t>Secured</t>
   </si>
   <si>
-    <t>Spend Before Reporting Commenced</t>
-  </si>
-  <si>
     <t>Reporting Period</t>
   </si>
   <si>
@@ -312,9 +309,6 @@
   </si>
   <si>
     <t>Actual / Forecast</t>
-  </si>
-  <si>
-    <t>Spend Beyond Fund Lifetime</t>
   </si>
   <si>
     <t>Towns Fund CDEL which is being utilised on TF project related activity (For Town Deals, this excludes the 5% CDEL Pre-Payment)</t>
@@ -1347,7 +1341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1379,25 +1373,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1441,12 +1422,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1682,19 +1657,17 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5AF6507D-A5BA-44E3-AD86-7EC36843582C}" name="Table15" displayName="Table15" ref="A1:J15" totalsRowShown="0">
-  <autoFilter ref="A1:J15" xr:uid="{5AF6507D-A5BA-44E3-AD86-7EC36843582C}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5AF6507D-A5BA-44E3-AD86-7EC36843582C}" name="Table15" displayName="Table15" ref="A1:H15" totalsRowShown="0">
+  <autoFilter ref="A1:H15" xr:uid="{5AF6507D-A5BA-44E3-AD86-7EC36843582C}"/>
+  <tableColumns count="8">
     <tableColumn id="11" xr3:uid="{EAD6135A-82AC-4927-877E-9C3ED88D2054}" name="Submission ID"/>
     <tableColumn id="6" xr3:uid="{02E7C2AE-B6AB-41FC-879F-BB109F4C76EF}" name="Project ID"/>
     <tableColumn id="2" xr3:uid="{4446533C-3A7E-4CC9-A147-F8E4F6E140A5}" name="Funding Source Name"/>
     <tableColumn id="3" xr3:uid="{B77FCEE0-D5EB-4D8D-B8EE-81B086635306}" name="Funding Source Type"/>
     <tableColumn id="4" xr3:uid="{09EFF7B4-5759-483D-8894-DA967909D34C}" name="Secured"/>
-    <tableColumn id="5" xr3:uid="{D8893815-9440-4541-98C5-13DAB0E3098F}" name="Spend Before Reporting Commenced"/>
     <tableColumn id="7" xr3:uid="{D171D8BE-5473-4026-9113-F75851A24BA3}" name="Reporting Period"/>
     <tableColumn id="8" xr3:uid="{EBBED273-C141-4990-8ACA-C4CDB99F78FC}" name="Spend for Reporting Period"/>
     <tableColumn id="10" xr3:uid="{5927EFE4-3ED3-46F2-9BA7-6ABE2C41AE29}" name="Actual / Forecast"/>
-    <tableColumn id="9" xr3:uid="{308F6808-32C7-426E-978D-700328A2626E}" name="Spend Beyond Fund Lifetime"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2028,16 +2001,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1" t="s">
         <v>388</v>
       </c>
-      <c r="C1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D1" t="s">
-        <v>390</v>
-      </c>
       <c r="E1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2085,7 +2058,7 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,7 +2069,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2107,7 +2080,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2118,7 +2091,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2129,7 +2102,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,7 +2113,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2151,7 +2124,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,7 +2135,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,7 +2146,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2215,19 +2188,19 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" t="s">
-        <v>128</v>
-      </c>
       <c r="G1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2250,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2273,7 +2246,7 @@
         <v>50000</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2296,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2319,7 +2292,7 @@
         <v>1000000</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2342,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2365,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2388,7 +2361,7 @@
         <v>100000</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2411,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2439,39 +2412,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -2479,7 +2452,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -2487,7 +2460,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -2495,7 +2468,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -2503,7 +2476,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
@@ -2511,7 +2484,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -2519,7 +2492,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -2527,7 +2500,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -2535,7 +2508,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -2543,7 +2516,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -2551,7 +2524,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -2559,7 +2532,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -2567,7 +2540,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
@@ -2575,7 +2548,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -2583,346 +2556,346 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2962,25 +2935,25 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" t="s">
         <v>197</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>198</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>199</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>200</v>
       </c>
-      <c r="G1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H1" t="s">
-        <v>202</v>
-      </c>
       <c r="I1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2997,19 +2970,19 @@
         <v>44104</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3026,19 +2999,19 @@
         <v>44104</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3055,19 +3028,19 @@
         <v>44286</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3084,19 +3057,19 @@
         <v>44286</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3113,19 +3086,19 @@
         <v>44286</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3142,19 +3115,19 @@
         <v>44469</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7">
         <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3171,19 +3144,19 @@
         <v>44469</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3200,19 +3173,19 @@
         <v>44469</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3229,19 +3202,19 @@
         <v>44834</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H10">
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3258,19 +3231,19 @@
         <v>44834</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3287,19 +3260,19 @@
         <v>44834</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3316,19 +3289,19 @@
         <v>45016</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H13">
         <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3345,19 +3318,19 @@
         <v>45016</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3374,19 +3347,19 @@
         <v>45016</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3403,13 +3376,13 @@
         <v>45199</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3429,19 +3402,19 @@
         <v>45199</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3458,13 +3431,13 @@
         <v>45199</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3484,13 +3457,13 @@
         <v>45382</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3510,13 +3483,13 @@
         <v>45382</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3536,19 +3509,19 @@
         <v>45382</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3565,19 +3538,19 @@
         <v>45565</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3594,19 +3567,19 @@
         <v>45565</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H23">
         <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3623,19 +3596,19 @@
         <v>45565</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3652,19 +3625,19 @@
         <v>45747</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3681,19 +3654,19 @@
         <v>45747</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H26">
         <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3710,19 +3683,19 @@
         <v>45747</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3739,13 +3712,13 @@
         <v>45930</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3765,13 +3738,13 @@
         <v>45930</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H29">
         <v>66</v>
@@ -3791,13 +3764,13 @@
         <v>45930</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3817,13 +3790,13 @@
         <v>46112</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3843,13 +3816,13 @@
         <v>46112</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H32">
         <v>66</v>
@@ -3869,13 +3842,13 @@
         <v>46112</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3895,13 +3868,13 @@
         <v>44104</v>
       </c>
       <c r="E34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3921,13 +3894,13 @@
         <v>44286</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3947,13 +3920,13 @@
         <v>44469</v>
       </c>
       <c r="E36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3973,13 +3946,13 @@
         <v>44834</v>
       </c>
       <c r="E37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3999,13 +3972,13 @@
         <v>45016</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4025,13 +3998,13 @@
         <v>45199</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4051,13 +4024,13 @@
         <v>45382</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4077,13 +4050,13 @@
         <v>45565</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H41">
         <v>66</v>
@@ -4103,13 +4076,13 @@
         <v>45747</v>
       </c>
       <c r="E42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4129,13 +4102,13 @@
         <v>45930</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4155,13 +4128,13 @@
         <v>46112</v>
       </c>
       <c r="E44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4181,13 +4154,13 @@
         <v>44104</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4207,13 +4180,13 @@
         <v>44104</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4233,13 +4206,13 @@
         <v>44286</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4259,13 +4232,13 @@
         <v>44286</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4285,13 +4258,13 @@
         <v>44286</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4311,13 +4284,13 @@
         <v>44469</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4337,13 +4310,13 @@
         <v>44469</v>
       </c>
       <c r="E51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4363,13 +4336,13 @@
         <v>44469</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F52" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -4389,13 +4362,13 @@
         <v>44834</v>
       </c>
       <c r="E53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -4415,13 +4388,13 @@
         <v>44834</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -4441,13 +4414,13 @@
         <v>44834</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F55" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -4467,13 +4440,13 @@
         <v>45016</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4493,13 +4466,13 @@
         <v>45016</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F57" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -4519,13 +4492,13 @@
         <v>45016</v>
       </c>
       <c r="E58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -4545,13 +4518,13 @@
         <v>45199</v>
       </c>
       <c r="E59" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F59" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -4571,13 +4544,13 @@
         <v>45199</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G60" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -4597,13 +4570,13 @@
         <v>45199</v>
       </c>
       <c r="E61" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F61" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -4623,13 +4596,13 @@
         <v>45382</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F62" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G62" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -4649,13 +4622,13 @@
         <v>45382</v>
       </c>
       <c r="E63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -4675,13 +4648,13 @@
         <v>45382</v>
       </c>
       <c r="E64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -4701,13 +4674,13 @@
         <v>45565</v>
       </c>
       <c r="E65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -4727,13 +4700,13 @@
         <v>45565</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F66" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H66">
         <v>66</v>
@@ -4753,13 +4726,13 @@
         <v>45565</v>
       </c>
       <c r="E67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -4779,13 +4752,13 @@
         <v>45747</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -4805,13 +4778,13 @@
         <v>45747</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H69">
         <v>66</v>
@@ -4831,13 +4804,13 @@
         <v>45747</v>
       </c>
       <c r="E70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -4857,13 +4830,13 @@
         <v>45930</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F71" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -4883,13 +4856,13 @@
         <v>45930</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -4909,13 +4882,13 @@
         <v>45930</v>
       </c>
       <c r="E73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -4935,13 +4908,13 @@
         <v>46112</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F74" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G74" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -4961,13 +4934,13 @@
         <v>46112</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G75" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -4987,13 +4960,13 @@
         <v>46112</v>
       </c>
       <c r="E76" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -5013,13 +4986,13 @@
         <v>44104</v>
       </c>
       <c r="E77" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -5039,13 +5012,13 @@
         <v>44286</v>
       </c>
       <c r="E78" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -5065,13 +5038,13 @@
         <v>44469</v>
       </c>
       <c r="E79" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -5091,13 +5064,13 @@
         <v>44834</v>
       </c>
       <c r="E80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -5117,13 +5090,13 @@
         <v>45016</v>
       </c>
       <c r="E81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F81" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -5143,13 +5116,13 @@
         <v>45199</v>
       </c>
       <c r="E82" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F82" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -5169,13 +5142,13 @@
         <v>45382</v>
       </c>
       <c r="E83" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F83" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H83">
         <v>300</v>
@@ -5195,13 +5168,13 @@
         <v>45565</v>
       </c>
       <c r="E84" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -5221,13 +5194,13 @@
         <v>45747</v>
       </c>
       <c r="E85" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F85" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -5247,13 +5220,13 @@
         <v>45930</v>
       </c>
       <c r="E86" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F86" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5273,13 +5246,13 @@
         <v>46112</v>
       </c>
       <c r="E87" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F87" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G87" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5299,13 +5272,13 @@
         <v>44104</v>
       </c>
       <c r="E88" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F88" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G88" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -5325,13 +5298,13 @@
         <v>44104</v>
       </c>
       <c r="E89" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F89" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G89" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5351,13 +5324,13 @@
         <v>44286</v>
       </c>
       <c r="E90" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F90" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G90" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5377,13 +5350,13 @@
         <v>44286</v>
       </c>
       <c r="E91" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F91" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -5403,13 +5376,13 @@
         <v>44286</v>
       </c>
       <c r="E92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F92" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -5429,13 +5402,13 @@
         <v>44469</v>
       </c>
       <c r="E93" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5455,13 +5428,13 @@
         <v>44469</v>
       </c>
       <c r="E94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F94" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5481,13 +5454,13 @@
         <v>44469</v>
       </c>
       <c r="E95" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F95" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5507,13 +5480,13 @@
         <v>44834</v>
       </c>
       <c r="E96" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F96" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5533,13 +5506,13 @@
         <v>44834</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F97" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G97" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5559,13 +5532,13 @@
         <v>44834</v>
       </c>
       <c r="E98" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F98" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5585,13 +5558,13 @@
         <v>45016</v>
       </c>
       <c r="E99" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F99" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G99" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5611,13 +5584,13 @@
         <v>45016</v>
       </c>
       <c r="E100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F100" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G100" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5637,13 +5610,13 @@
         <v>45016</v>
       </c>
       <c r="E101" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F101" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G101" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5663,13 +5636,13 @@
         <v>45199</v>
       </c>
       <c r="E102" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5689,13 +5662,13 @@
         <v>45199</v>
       </c>
       <c r="E103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G103" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5715,13 +5688,13 @@
         <v>45199</v>
       </c>
       <c r="E104" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G104" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5741,13 +5714,13 @@
         <v>45382</v>
       </c>
       <c r="E105" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G105" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -5767,13 +5740,13 @@
         <v>45382</v>
       </c>
       <c r="E106" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G106" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -5793,13 +5766,13 @@
         <v>45382</v>
       </c>
       <c r="E107" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F107" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -5819,13 +5792,13 @@
         <v>45565</v>
       </c>
       <c r="E108" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G108" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -5845,13 +5818,13 @@
         <v>45565</v>
       </c>
       <c r="E109" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F109" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -5871,13 +5844,13 @@
         <v>45565</v>
       </c>
       <c r="E110" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F110" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G110" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -5897,13 +5870,13 @@
         <v>45747</v>
       </c>
       <c r="E111" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G111" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -5923,13 +5896,13 @@
         <v>45747</v>
       </c>
       <c r="E112" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F112" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G112" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -5949,13 +5922,13 @@
         <v>45747</v>
       </c>
       <c r="E113" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F113" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G113" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5975,13 +5948,13 @@
         <v>45930</v>
       </c>
       <c r="E114" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F114" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G114" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6001,13 +5974,13 @@
         <v>45930</v>
       </c>
       <c r="E115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F115" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6027,13 +6000,13 @@
         <v>45930</v>
       </c>
       <c r="E116" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F116" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G116" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -6053,13 +6026,13 @@
         <v>46112</v>
       </c>
       <c r="E117" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F117" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G117" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -6079,13 +6052,13 @@
         <v>46112</v>
       </c>
       <c r="E118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F118" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G118" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -6105,13 +6078,13 @@
         <v>46112</v>
       </c>
       <c r="E119" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F119" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G119" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -6146,15 +6119,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -6162,7 +6135,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -6170,55 +6143,55 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -6226,7 +6199,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -6234,7 +6207,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -6242,7 +6215,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -6250,23 +6223,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -6274,7 +6247,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
@@ -6282,7 +6255,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -6290,7 +6263,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -6298,7 +6271,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -6306,7 +6279,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -6314,7 +6287,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
@@ -6322,87 +6295,87 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -6410,7 +6383,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -6418,127 +6391,127 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B46" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -6546,15 +6519,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -6562,7 +6535,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -6570,7 +6543,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
@@ -6578,7 +6551,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B55" t="s">
         <v>39</v>
@@ -6586,7 +6559,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -6594,7 +6567,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -6602,7 +6575,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -6610,7 +6583,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -6618,7 +6591,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -6626,7 +6599,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
@@ -6634,7 +6607,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -6642,26 +6615,26 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6706,28 +6679,28 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" t="s">
         <v>279</v>
       </c>
-      <c r="G1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H1" t="s">
-        <v>281</v>
-      </c>
       <c r="I1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6744,22 +6717,22 @@
         <v>43951</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I2">
         <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6776,22 +6749,22 @@
         <v>43982</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I3">
         <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6808,22 +6781,22 @@
         <v>44012</v>
       </c>
       <c r="F4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I4">
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6840,22 +6813,22 @@
         <v>44043</v>
       </c>
       <c r="F5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6872,22 +6845,22 @@
         <v>44074</v>
       </c>
       <c r="F6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I6">
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6904,22 +6877,22 @@
         <v>44104</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I7">
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6936,22 +6909,22 @@
         <v>44135</v>
       </c>
       <c r="F8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I8">
         <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6968,22 +6941,22 @@
         <v>44165</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I9">
         <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7000,22 +6973,22 @@
         <v>44196</v>
       </c>
       <c r="F10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I10">
         <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7032,22 +7005,22 @@
         <v>44227</v>
       </c>
       <c r="F11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I11">
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7064,22 +7037,22 @@
         <v>44255</v>
       </c>
       <c r="F12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I12">
         <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7096,22 +7069,22 @@
         <v>44286</v>
       </c>
       <c r="F13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I13">
         <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7128,22 +7101,22 @@
         <v>44316</v>
       </c>
       <c r="F14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I14">
         <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7160,22 +7133,22 @@
         <v>44347</v>
       </c>
       <c r="F15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I15">
         <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7192,19 +7165,19 @@
         <v>44377</v>
       </c>
       <c r="F16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I16">
         <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -7221,19 +7194,19 @@
         <v>44408</v>
       </c>
       <c r="F17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -7250,19 +7223,19 @@
         <v>44439</v>
       </c>
       <c r="F18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I18">
         <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -7279,19 +7252,19 @@
         <v>44469</v>
       </c>
       <c r="F19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I19">
         <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -7308,19 +7281,19 @@
         <v>44500</v>
       </c>
       <c r="F20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I20">
         <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -7337,22 +7310,22 @@
         <v>44530</v>
       </c>
       <c r="F21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I21">
         <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -7369,22 +7342,22 @@
         <v>44561</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I22">
         <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -7401,22 +7374,22 @@
         <v>44227</v>
       </c>
       <c r="F23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I23">
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -7433,22 +7406,22 @@
         <v>44620</v>
       </c>
       <c r="F24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I24">
         <v>71</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -7465,22 +7438,22 @@
         <v>44651</v>
       </c>
       <c r="F25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I25">
         <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7497,22 +7470,22 @@
         <v>44681</v>
       </c>
       <c r="F26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I26">
         <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -7529,22 +7502,22 @@
         <v>44712</v>
       </c>
       <c r="F27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -7593,40 +7566,40 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" t="s">
         <v>284</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>285</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>286</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>287</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>288</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>289</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>290</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>291</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>292</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>293</v>
-      </c>
-      <c r="N1" t="s">
-        <v>294</v>
-      </c>
-      <c r="O1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -7637,40 +7610,40 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" t="s">
         <v>296</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" t="s">
         <v>297</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>298</v>
       </c>
-      <c r="G2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" t="s">
-        <v>313</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>299</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>300</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>301</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>302</v>
-      </c>
-      <c r="N2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -7681,40 +7654,40 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K3" t="s">
         <v>305</v>
       </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
         <v>306</v>
       </c>
-      <c r="F3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" t="s">
-        <v>308</v>
-      </c>
-      <c r="J3" t="s">
-        <v>299</v>
-      </c>
-      <c r="K3" t="s">
-        <v>307</v>
-      </c>
-      <c r="L3" t="s">
-        <v>308</v>
-      </c>
       <c r="M3" t="s">
+        <v>300</v>
+      </c>
+      <c r="N3" t="s">
+        <v>301</v>
+      </c>
+      <c r="O3" t="s">
         <v>302</v>
-      </c>
-      <c r="N3" t="s">
-        <v>303</v>
-      </c>
-      <c r="O3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -7725,40 +7698,40 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J4" t="s">
         <v>309</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>310</v>
       </c>
-      <c r="F4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" t="s">
-        <v>368</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>311</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N4" t="s">
         <v>312</v>
       </c>
-      <c r="L4" t="s">
-        <v>313</v>
-      </c>
-      <c r="M4" t="s">
-        <v>311</v>
-      </c>
-      <c r="N4" t="s">
-        <v>314</v>
-      </c>
       <c r="O4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -7769,40 +7742,40 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" t="s">
+        <v>306</v>
+      </c>
+      <c r="J5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K5" t="s">
         <v>315</v>
       </c>
-      <c r="E5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" t="s">
-        <v>308</v>
-      </c>
-      <c r="J5" t="s">
-        <v>311</v>
-      </c>
-      <c r="K5" t="s">
-        <v>317</v>
-      </c>
       <c r="L5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -7813,40 +7786,40 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J6" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" t="s">
         <v>318</v>
       </c>
-      <c r="E6" t="s">
+      <c r="L6" t="s">
+        <v>299</v>
+      </c>
+      <c r="M6" t="s">
+        <v>300</v>
+      </c>
+      <c r="N6" t="s">
         <v>319</v>
       </c>
-      <c r="F6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" t="s">
-        <v>301</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>302</v>
-      </c>
-      <c r="K6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L6" t="s">
-        <v>301</v>
-      </c>
-      <c r="M6" t="s">
-        <v>302</v>
-      </c>
-      <c r="N6" t="s">
-        <v>321</v>
-      </c>
-      <c r="O6" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -7857,40 +7830,40 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>306</v>
+      </c>
+      <c r="J7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M7" t="s">
+        <v>297</v>
+      </c>
+      <c r="N7" t="s">
+        <v>312</v>
+      </c>
+      <c r="O7" t="s">
         <v>322</v>
-      </c>
-      <c r="E7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M7" t="s">
-        <v>299</v>
-      </c>
-      <c r="N7" t="s">
-        <v>314</v>
-      </c>
-      <c r="O7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7901,40 +7874,40 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
+        <v>306</v>
+      </c>
+      <c r="J8" t="s">
+        <v>309</v>
+      </c>
+      <c r="K8" t="s">
         <v>325</v>
       </c>
-      <c r="E8" t="s">
+      <c r="L8" t="s">
+        <v>299</v>
+      </c>
+      <c r="M8" t="s">
+        <v>300</v>
+      </c>
+      <c r="N8" t="s">
+        <v>301</v>
+      </c>
+      <c r="O8" t="s">
         <v>326</v>
-      </c>
-      <c r="F8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" t="s">
-        <v>308</v>
-      </c>
-      <c r="J8" t="s">
-        <v>311</v>
-      </c>
-      <c r="K8" t="s">
-        <v>327</v>
-      </c>
-      <c r="L8" t="s">
-        <v>301</v>
-      </c>
-      <c r="M8" t="s">
-        <v>302</v>
-      </c>
-      <c r="N8" t="s">
-        <v>303</v>
-      </c>
-      <c r="O8" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -7945,40 +7918,40 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J9" t="s">
+        <v>297</v>
+      </c>
+      <c r="K9" t="s">
         <v>329</v>
       </c>
-      <c r="E9" t="s">
+      <c r="L9" t="s">
         <v>330</v>
       </c>
-      <c r="F9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" t="s">
-        <v>308</v>
-      </c>
-      <c r="J9" t="s">
-        <v>299</v>
-      </c>
-      <c r="K9" t="s">
-        <v>331</v>
-      </c>
-      <c r="L9" t="s">
-        <v>332</v>
-      </c>
       <c r="M9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7990,40 +7963,40 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s">
+        <v>306</v>
+      </c>
+      <c r="J10" t="s">
+        <v>309</v>
+      </c>
+      <c r="K10" t="s">
+        <v>332</v>
+      </c>
+      <c r="L10" t="s">
+        <v>299</v>
+      </c>
+      <c r="M10" t="s">
+        <v>300</v>
+      </c>
+      <c r="N10" t="s">
         <v>333</v>
       </c>
-      <c r="E10" t="s">
-        <v>310</v>
-      </c>
-      <c r="F10" t="s">
-        <v>298</v>
-      </c>
-      <c r="G10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" t="s">
-        <v>308</v>
-      </c>
-      <c r="J10" t="s">
-        <v>311</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>334</v>
-      </c>
-      <c r="L10" t="s">
-        <v>301</v>
-      </c>
-      <c r="M10" t="s">
-        <v>302</v>
-      </c>
-      <c r="N10" t="s">
-        <v>335</v>
-      </c>
-      <c r="O10" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -8035,40 +8008,40 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" t="s">
+        <v>299</v>
+      </c>
+      <c r="J11" t="s">
+        <v>297</v>
+      </c>
+      <c r="K11" t="s">
         <v>337</v>
       </c>
-      <c r="E11" t="s">
+      <c r="L11" t="s">
+        <v>299</v>
+      </c>
+      <c r="M11" t="s">
+        <v>300</v>
+      </c>
+      <c r="N11" t="s">
+        <v>319</v>
+      </c>
+      <c r="O11" t="s">
         <v>338</v>
-      </c>
-      <c r="F11" t="s">
-        <v>298</v>
-      </c>
-      <c r="G11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" t="s">
-        <v>301</v>
-      </c>
-      <c r="J11" t="s">
-        <v>299</v>
-      </c>
-      <c r="K11" t="s">
-        <v>339</v>
-      </c>
-      <c r="L11" t="s">
-        <v>301</v>
-      </c>
-      <c r="M11" t="s">
-        <v>302</v>
-      </c>
-      <c r="N11" t="s">
-        <v>321</v>
-      </c>
-      <c r="O11" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -8080,40 +8053,40 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" t="s">
+        <v>299</v>
+      </c>
+      <c r="J12" t="s">
+        <v>309</v>
+      </c>
+      <c r="K12" t="s">
         <v>341</v>
       </c>
-      <c r="E12" t="s">
+      <c r="L12" t="s">
+        <v>330</v>
+      </c>
+      <c r="M12" t="s">
+        <v>297</v>
+      </c>
+      <c r="N12" t="s">
+        <v>301</v>
+      </c>
+      <c r="O12" t="s">
         <v>342</v>
-      </c>
-      <c r="F12" t="s">
-        <v>298</v>
-      </c>
-      <c r="G12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" t="s">
-        <v>301</v>
-      </c>
-      <c r="J12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K12" t="s">
-        <v>343</v>
-      </c>
-      <c r="L12" t="s">
-        <v>332</v>
-      </c>
-      <c r="M12" t="s">
-        <v>299</v>
-      </c>
-      <c r="N12" t="s">
-        <v>303</v>
-      </c>
-      <c r="O12" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -8125,40 +8098,40 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -8170,40 +8143,40 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s">
+        <v>311</v>
+      </c>
+      <c r="J14" t="s">
+        <v>309</v>
+      </c>
+      <c r="K14" t="s">
         <v>347</v>
       </c>
-      <c r="E14" t="s">
-        <v>348</v>
-      </c>
-      <c r="F14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" t="s">
-        <v>313</v>
-      </c>
-      <c r="J14" t="s">
-        <v>311</v>
-      </c>
-      <c r="K14" t="s">
-        <v>349</v>
-      </c>
       <c r="L14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -8215,40 +8188,40 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>311</v>
+      </c>
+      <c r="J15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K15" t="s">
         <v>350</v>
       </c>
-      <c r="E15" t="s">
-        <v>351</v>
-      </c>
-      <c r="F15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" t="s">
-        <v>313</v>
-      </c>
-      <c r="J15" t="s">
-        <v>311</v>
-      </c>
-      <c r="K15" t="s">
-        <v>352</v>
-      </c>
       <c r="L15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -8260,40 +8233,40 @@
         <v>36</v>
       </c>
       <c r="D16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>330</v>
+      </c>
+      <c r="J16" t="s">
+        <v>300</v>
+      </c>
+      <c r="K16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L16" t="s">
         <v>353</v>
       </c>
-      <c r="E16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F16" t="s">
-        <v>298</v>
-      </c>
-      <c r="G16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" t="s">
-        <v>332</v>
-      </c>
-      <c r="J16" t="s">
-        <v>302</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
+        <v>300</v>
+      </c>
+      <c r="N16" t="s">
+        <v>301</v>
+      </c>
+      <c r="O16" t="s">
         <v>354</v>
-      </c>
-      <c r="L16" t="s">
-        <v>355</v>
-      </c>
-      <c r="M16" t="s">
-        <v>302</v>
-      </c>
-      <c r="N16" t="s">
-        <v>303</v>
-      </c>
-      <c r="O16" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -8305,40 +8278,40 @@
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -8350,40 +8323,40 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -8395,40 +8368,40 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
+        <v>359</v>
+      </c>
+      <c r="E19" t="s">
+        <v>360</v>
+      </c>
+      <c r="F19" t="s">
+        <v>296</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
+        <v>306</v>
+      </c>
+      <c r="J19" t="s">
+        <v>297</v>
+      </c>
+      <c r="K19" t="s">
         <v>361</v>
       </c>
-      <c r="E19" t="s">
-        <v>362</v>
-      </c>
-      <c r="F19" t="s">
-        <v>298</v>
-      </c>
-      <c r="G19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" t="s">
-        <v>308</v>
-      </c>
-      <c r="J19" t="s">
-        <v>299</v>
-      </c>
-      <c r="K19" t="s">
-        <v>363</v>
-      </c>
       <c r="L19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M19" t="s">
+        <v>300</v>
+      </c>
+      <c r="N19" t="s">
+        <v>319</v>
+      </c>
+      <c r="O19" t="s">
         <v>302</v>
-      </c>
-      <c r="N19" t="s">
-        <v>321</v>
-      </c>
-      <c r="O19" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -8440,40 +8413,40 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J20" t="s">
+        <v>297</v>
+      </c>
+      <c r="K20" t="s">
+        <v>363</v>
+      </c>
+      <c r="L20" t="s">
         <v>299</v>
       </c>
-      <c r="K20" t="s">
-        <v>365</v>
-      </c>
-      <c r="L20" t="s">
-        <v>301</v>
-      </c>
       <c r="M20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -8485,40 +8458,40 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E21" t="s">
+        <v>346</v>
+      </c>
+      <c r="F21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
         <v>366</v>
       </c>
-      <c r="E21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F21" t="s">
-        <v>298</v>
-      </c>
-      <c r="G21" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" t="s">
-        <v>368</v>
-      </c>
       <c r="J21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -8530,40 +8503,40 @@
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -8575,40 +8548,40 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
+        <v>369</v>
+      </c>
+      <c r="E23" t="s">
+        <v>370</v>
+      </c>
+      <c r="F23" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" t="s">
+        <v>306</v>
+      </c>
+      <c r="J23" t="s">
+        <v>297</v>
+      </c>
+      <c r="K23" t="s">
         <v>371</v>
       </c>
-      <c r="E23" t="s">
-        <v>372</v>
-      </c>
-      <c r="F23" t="s">
-        <v>298</v>
-      </c>
-      <c r="G23" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" t="s">
-        <v>308</v>
-      </c>
-      <c r="J23" t="s">
-        <v>299</v>
-      </c>
-      <c r="K23" t="s">
-        <v>373</v>
-      </c>
       <c r="L23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M23" t="s">
+        <v>300</v>
+      </c>
+      <c r="N23" t="s">
+        <v>301</v>
+      </c>
+      <c r="O23" t="s">
         <v>302</v>
-      </c>
-      <c r="N23" t="s">
-        <v>303</v>
-      </c>
-      <c r="O23" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -8620,40 +8593,40 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J24" t="s">
+        <v>300</v>
+      </c>
+      <c r="K24" t="s">
+        <v>373</v>
+      </c>
+      <c r="L24" t="s">
+        <v>299</v>
+      </c>
+      <c r="M24" t="s">
+        <v>300</v>
+      </c>
+      <c r="N24" t="s">
+        <v>333</v>
+      </c>
+      <c r="O24" t="s">
         <v>302</v>
-      </c>
-      <c r="K24" t="s">
-        <v>375</v>
-      </c>
-      <c r="L24" t="s">
-        <v>301</v>
-      </c>
-      <c r="M24" t="s">
-        <v>302</v>
-      </c>
-      <c r="N24" t="s">
-        <v>335</v>
-      </c>
-      <c r="O24" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -8665,40 +8638,40 @@
         <v>38</v>
       </c>
       <c r="D25" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" t="s">
+        <v>375</v>
+      </c>
+      <c r="F25" t="s">
+        <v>296</v>
+      </c>
+      <c r="G25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" t="s">
+        <v>311</v>
+      </c>
+      <c r="J25" t="s">
+        <v>300</v>
+      </c>
+      <c r="K25" t="s">
         <v>376</v>
       </c>
-      <c r="E25" t="s">
-        <v>377</v>
-      </c>
-      <c r="F25" t="s">
-        <v>298</v>
-      </c>
-      <c r="G25" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" t="s">
-        <v>313</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
+        <v>299</v>
+      </c>
+      <c r="M25" t="s">
+        <v>300</v>
+      </c>
+      <c r="N25" t="s">
+        <v>312</v>
+      </c>
+      <c r="O25" t="s">
         <v>302</v>
-      </c>
-      <c r="K25" t="s">
-        <v>378</v>
-      </c>
-      <c r="L25" t="s">
-        <v>301</v>
-      </c>
-      <c r="M25" t="s">
-        <v>302</v>
-      </c>
-      <c r="N25" t="s">
-        <v>314</v>
-      </c>
-      <c r="O25" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -8710,40 +8683,40 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
+        <v>377</v>
+      </c>
+      <c r="E26" t="s">
+        <v>378</v>
+      </c>
+      <c r="F26" t="s">
+        <v>296</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" t="s">
+        <v>366</v>
+      </c>
+      <c r="J26" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" t="s">
         <v>379</v>
       </c>
-      <c r="E26" t="s">
+      <c r="L26" t="s">
+        <v>306</v>
+      </c>
+      <c r="M26" t="s">
+        <v>297</v>
+      </c>
+      <c r="N26" t="s">
         <v>380</v>
       </c>
-      <c r="F26" t="s">
-        <v>298</v>
-      </c>
-      <c r="G26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" t="s">
-        <v>368</v>
-      </c>
-      <c r="J26" t="s">
-        <v>299</v>
-      </c>
-      <c r="K26" t="s">
-        <v>381</v>
-      </c>
-      <c r="L26" t="s">
-        <v>308</v>
-      </c>
-      <c r="M26" t="s">
-        <v>299</v>
-      </c>
-      <c r="N26" t="s">
-        <v>382</v>
-      </c>
       <c r="O26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -8755,40 +8728,40 @@
         <v>38</v>
       </c>
       <c r="D27" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" t="s">
+        <v>382</v>
+      </c>
+      <c r="F27" t="s">
+        <v>296</v>
+      </c>
+      <c r="G27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J27" t="s">
+        <v>300</v>
+      </c>
+      <c r="K27" t="s">
         <v>383</v>
       </c>
-      <c r="E27" t="s">
-        <v>384</v>
-      </c>
-      <c r="F27" t="s">
-        <v>298</v>
-      </c>
-      <c r="G27" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" t="s">
-        <v>108</v>
-      </c>
-      <c r="I27" t="s">
-        <v>313</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
+        <v>330</v>
+      </c>
+      <c r="M27" t="s">
+        <v>300</v>
+      </c>
+      <c r="N27" t="s">
+        <v>319</v>
+      </c>
+      <c r="O27" t="s">
         <v>302</v>
-      </c>
-      <c r="K27" t="s">
-        <v>385</v>
-      </c>
-      <c r="L27" t="s">
-        <v>332</v>
-      </c>
-      <c r="M27" t="s">
-        <v>302</v>
-      </c>
-      <c r="N27" t="s">
-        <v>321</v>
-      </c>
-      <c r="O27" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -8800,40 +8773,40 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E28" t="s">
+        <v>317</v>
+      </c>
+      <c r="F28" t="s">
+        <v>296</v>
+      </c>
+      <c r="G28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" t="s">
+        <v>306</v>
+      </c>
+      <c r="J28" t="s">
+        <v>297</v>
+      </c>
+      <c r="K28" t="s">
+        <v>385</v>
+      </c>
+      <c r="L28" t="s">
+        <v>299</v>
+      </c>
+      <c r="M28" t="s">
+        <v>300</v>
+      </c>
+      <c r="N28" t="s">
         <v>319</v>
       </c>
-      <c r="F28" t="s">
-        <v>298</v>
-      </c>
-      <c r="G28" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" t="s">
-        <v>308</v>
-      </c>
-      <c r="J28" t="s">
-        <v>299</v>
-      </c>
-      <c r="K28" t="s">
-        <v>387</v>
-      </c>
-      <c r="L28" t="s">
-        <v>301</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>302</v>
-      </c>
-      <c r="N28" t="s">
-        <v>321</v>
-      </c>
-      <c r="O28" t="s">
-        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -8869,7 +8842,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -8888,8 +8861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136BCEBD-759D-42DA-A155-48E4E8958367}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8925,7 +8898,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -9414,10 +9387,10 @@
         <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9428,16 +9401,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9448,16 +9421,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" s="9">
         <v>607784</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9468,16 +9441,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
         <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
       </c>
       <c r="E4" s="9">
         <v>123456</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9488,16 +9461,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="9">
         <v>654321</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9508,16 +9481,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9528,16 +9501,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9548,16 +9521,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9568,16 +9541,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9588,13 +9561,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9605,13 +9578,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9622,16 +9595,16 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9642,16 +9615,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9662,16 +9635,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9682,16 +9655,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
         <v>121</v>
-      </c>
-      <c r="D15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9702,10 +9675,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9716,10 +9689,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -9764,7 +9737,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
@@ -9776,10 +9749,10 @@
         <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -9793,7 +9766,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -9805,10 +9778,10 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9822,7 +9795,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
@@ -9834,7 +9807,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -9848,7 +9821,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
@@ -9860,10 +9833,10 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9877,7 +9850,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
@@ -9889,7 +9862,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9903,7 +9876,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -9915,7 +9888,7 @@
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9929,7 +9902,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -9952,7 +9925,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -9964,10 +9937,10 @@
         <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9981,7 +9954,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
@@ -9993,7 +9966,7 @@
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -10236,10 +10209,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBE28E4-3DB0-487F-AAD0-E345678244B7}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10249,15 +10222,13 @@
     <col min="3" max="3" width="53.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="36.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10282,14 +10253,8 @@
       <c r="H1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -10297,31 +10262,25 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -10329,31 +10288,25 @@
         <v>30</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="G3" s="16">
+        <v>43300</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="16">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="16">
-        <v>43300</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -10361,31 +10314,25 @@
         <v>30</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -10393,31 +10340,25 @@
         <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -10425,31 +10366,25 @@
         <v>30</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -10457,31 +10392,25 @@
         <v>30</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -10489,31 +10418,25 @@
         <v>30</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="18">
+        <v>113152</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="18">
-        <v>113152</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -10521,31 +10444,25 @@
         <v>30</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="16">
+        <v>102</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="16">
         <v>76166</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -10553,31 +10470,25 @@
         <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -10585,31 +10496,25 @@
         <v>30</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -10617,31 +10522,25 @@
         <v>30</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="19">
+        <v>102</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="19">
         <v>60000</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -10649,31 +10548,25 @@
         <v>30</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="20">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -10681,31 +10574,25 @@
         <v>30</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="20">
-        <v>0</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="23">
-        <v>3344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -10713,81 +10600,56 @@
         <v>30</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="24">
-        <v>1122</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="12"/>
+        <v>102</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="12"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="12"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="12"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="13"/>
-      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="12"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="12"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="12"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F26" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10803,6 +10665,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
@@ -10811,15 +10682,6 @@
     <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11065,20 +10927,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CA70E21-41D5-415B-B329-A133B7922149}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70073AC4-B26C-493C-8C25-29DBD67F7B7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
     <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CA70E21-41D5-415B-B329-A133B7922149}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
+++ b/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SnapeN\Dev\funding-service-design-post-award-data-store\tests\controller_tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D641CDC-9D41-493B-AAC9-D4F78ED3044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AB6C83-C326-434A-8D25-E6C7CF2361E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4500" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="8" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
+    <workbookView xWindow="38280" yWindow="5175" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="7" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission_Ref" sheetId="20" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="403">
   <si>
     <t>Submission ID</t>
   </si>
@@ -302,9 +302,6 @@
     <t>Secured</t>
   </si>
   <si>
-    <t>Reporting Period</t>
-  </si>
-  <si>
     <t>Spend for Reporting Period</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>H1 22/23</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
@@ -336,12 +330,6 @@
   </si>
   <si>
     <t>How much of your RDEL forecast is contractually committed?</t>
-  </si>
-  <si>
-    <t>H2 22/23</t>
-  </si>
-  <si>
-    <t>H2 23/24</t>
   </si>
   <si>
     <t>Forecast</t>
@@ -1378,7 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1418,18 +1406,28 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1476,7 +1474,7 @@
     <tableColumn id="3" xr3:uid="{8950D16B-3257-4FD9-9209-91782FB1847C}" name="Townsfund Funding"/>
     <tableColumn id="4" xr3:uid="{42D9447C-F1D5-4248-8FD8-D6A1E53CD4FA}" name="Private Sector Funding Required"/>
     <tableColumn id="5" xr3:uid="{D2CCA7A1-0565-4275-8174-63583B5641B3}" name="Private Sector Funding Secured"/>
-    <tableColumn id="1" xr3:uid="{839BF95B-13D1-4C30-A711-1F8084FA3A46}" name="Additional Comments" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{839BF95B-13D1-4C30-A711-1F8084FA3A46}" name="Additional Comments" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1527,12 +1525,12 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{8537E16F-E797-4E37-88C9-434B275E47FF}" name="Project ID"/>
     <tableColumn id="9" xr3:uid="{D4160626-660D-43E1-8026-277F46FD67C0}" name="Programme ID"/>
-    <tableColumn id="2" xr3:uid="{570DDDB8-B36A-46F5-92BC-965A389460F7}" name="Start_Date" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C6CD430A-E931-4BB6-BB6E-DDB49D07DF48}" name="End_Date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{570DDDB8-B36A-46F5-92BC-965A389460F7}" name="Start_Date" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C6CD430A-E931-4BB6-BB6E-DDB49D07DF48}" name="End_Date" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{900E6096-72C0-4BB1-83C2-947FF46110E9}" name="Outcome"/>
     <tableColumn id="5" xr3:uid="{79C9218D-BBE0-4D8F-A799-35A0ECCBA6EA}" name="UnitofMeasurement"/>
     <tableColumn id="6" xr3:uid="{FF2CB41E-3A92-492C-AE6D-D96513330D69}" name="GeographyIndicator"/>
-    <tableColumn id="7" xr3:uid="{7B14AE8F-255A-468D-9664-209C5422934F}" name="Amount" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{7B14AE8F-255A-468D-9664-209C5422934F}" name="Amount" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{0F2A7BA4-AEDC-42D9-94CD-5CD8E178E408}" name="Actual/Forecast"/>
     <tableColumn id="11" xr3:uid="{421424EF-099E-4EAA-9115-B2CFFB224759}" name="Higher Frequency"/>
   </tableColumns>
@@ -1657,15 +1655,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5AF6507D-A5BA-44E3-AD86-7EC36843582C}" name="Table15" displayName="Table15" ref="A1:H15" totalsRowShown="0">
-  <autoFilter ref="A1:H15" xr:uid="{5AF6507D-A5BA-44E3-AD86-7EC36843582C}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5AF6507D-A5BA-44E3-AD86-7EC36843582C}" name="Table15" displayName="Table15" ref="A1:I15" totalsRowShown="0">
+  <autoFilter ref="A1:I15" xr:uid="{5AF6507D-A5BA-44E3-AD86-7EC36843582C}"/>
+  <tableColumns count="9">
     <tableColumn id="11" xr3:uid="{EAD6135A-82AC-4927-877E-9C3ED88D2054}" name="Submission ID"/>
     <tableColumn id="6" xr3:uid="{02E7C2AE-B6AB-41FC-879F-BB109F4C76EF}" name="Project ID"/>
     <tableColumn id="2" xr3:uid="{4446533C-3A7E-4CC9-A147-F8E4F6E140A5}" name="Funding Source Name"/>
     <tableColumn id="3" xr3:uid="{B77FCEE0-D5EB-4D8D-B8EE-81B086635306}" name="Funding Source Type"/>
     <tableColumn id="4" xr3:uid="{09EFF7B4-5759-483D-8894-DA967909D34C}" name="Secured"/>
-    <tableColumn id="7" xr3:uid="{D171D8BE-5473-4026-9113-F75851A24BA3}" name="Reporting Period"/>
+    <tableColumn id="1" xr3:uid="{F0E11478-A8DE-4C32-891D-004E7C1CC338}" name="Start_Date" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{D171D8BE-5473-4026-9113-F75851A24BA3}" name="End_Date" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{EBBED273-C141-4990-8ACA-C4CDB99F78FC}" name="Spend for Reporting Period"/>
     <tableColumn id="10" xr3:uid="{5927EFE4-3ED3-46F2-9BA7-6ABE2C41AE29}" name="Actual / Forecast"/>
   </tableColumns>
@@ -2001,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2058,7 +2057,7 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2069,7 +2068,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2080,7 +2079,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2091,7 +2090,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2102,7 +2101,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2113,7 +2112,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,7 +2123,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2135,7 +2134,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2146,7 +2145,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2188,19 +2187,19 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2223,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2246,7 +2245,7 @@
         <v>50000</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2269,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2292,7 +2291,7 @@
         <v>1000000</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2315,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2338,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2361,7 +2360,7 @@
         <v>100000</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2384,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2412,39 +2411,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -2452,7 +2451,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -2460,7 +2459,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -2468,7 +2467,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -2476,7 +2475,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
@@ -2484,7 +2483,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -2492,7 +2491,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -2500,7 +2499,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -2508,7 +2507,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -2516,7 +2515,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -2524,7 +2523,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -2532,7 +2531,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -2540,7 +2539,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
@@ -2548,7 +2547,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -2556,346 +2555,346 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2911,7 +2910,7 @@
   <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C1" sqref="C1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,25 +2934,25 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" t="s">
         <v>195</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>196</v>
       </c>
-      <c r="E1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H1" t="s">
-        <v>200</v>
-      </c>
       <c r="I1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2970,19 +2969,19 @@
         <v>44104</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2999,19 +2998,19 @@
         <v>44104</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3028,19 +3027,19 @@
         <v>44286</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3057,19 +3056,19 @@
         <v>44286</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3086,19 +3085,19 @@
         <v>44286</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3115,19 +3114,19 @@
         <v>44469</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H7">
         <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3144,19 +3143,19 @@
         <v>44469</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3173,19 +3172,19 @@
         <v>44469</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3202,19 +3201,19 @@
         <v>44834</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H10">
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3231,19 +3230,19 @@
         <v>44834</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3260,19 +3259,19 @@
         <v>44834</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3289,19 +3288,19 @@
         <v>45016</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H13">
         <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3318,19 +3317,19 @@
         <v>45016</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3347,19 +3346,19 @@
         <v>45016</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3376,13 +3375,13 @@
         <v>45199</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3402,19 +3401,19 @@
         <v>45199</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3431,13 +3430,13 @@
         <v>45199</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3457,13 +3456,13 @@
         <v>45382</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3483,13 +3482,13 @@
         <v>45382</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3509,19 +3508,19 @@
         <v>45382</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3538,19 +3537,19 @@
         <v>45565</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3567,19 +3566,19 @@
         <v>45565</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H23">
         <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3596,19 +3595,19 @@
         <v>45565</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3625,19 +3624,19 @@
         <v>45747</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3654,19 +3653,19 @@
         <v>45747</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H26">
         <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3683,19 +3682,19 @@
         <v>45747</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3712,13 +3711,13 @@
         <v>45930</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3738,13 +3737,13 @@
         <v>45930</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H29">
         <v>66</v>
@@ -3764,13 +3763,13 @@
         <v>45930</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3790,13 +3789,13 @@
         <v>46112</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3816,13 +3815,13 @@
         <v>46112</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H32">
         <v>66</v>
@@ -3842,13 +3841,13 @@
         <v>46112</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F33" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3868,13 +3867,13 @@
         <v>44104</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F34" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3894,13 +3893,13 @@
         <v>44286</v>
       </c>
       <c r="E35" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3920,13 +3919,13 @@
         <v>44469</v>
       </c>
       <c r="E36" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F36" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3946,13 +3945,13 @@
         <v>44834</v>
       </c>
       <c r="E37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G37" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3972,13 +3971,13 @@
         <v>45016</v>
       </c>
       <c r="E38" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3998,13 +3997,13 @@
         <v>45199</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F39" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4024,13 +4023,13 @@
         <v>45382</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G40" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4050,13 +4049,13 @@
         <v>45565</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F41" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H41">
         <v>66</v>
@@ -4076,13 +4075,13 @@
         <v>45747</v>
       </c>
       <c r="E42" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F42" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4102,13 +4101,13 @@
         <v>45930</v>
       </c>
       <c r="E43" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4128,13 +4127,13 @@
         <v>46112</v>
       </c>
       <c r="E44" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F44" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G44" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4154,13 +4153,13 @@
         <v>44104</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F45" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4180,13 +4179,13 @@
         <v>44104</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F46" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4206,13 +4205,13 @@
         <v>44286</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F47" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4232,13 +4231,13 @@
         <v>44286</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F48" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4258,13 +4257,13 @@
         <v>44286</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F49" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4284,13 +4283,13 @@
         <v>44469</v>
       </c>
       <c r="E50" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4310,13 +4309,13 @@
         <v>44469</v>
       </c>
       <c r="E51" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F51" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4336,13 +4335,13 @@
         <v>44469</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F52" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -4362,13 +4361,13 @@
         <v>44834</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F53" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G53" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -4388,13 +4387,13 @@
         <v>44834</v>
       </c>
       <c r="E54" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F54" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G54" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -4414,13 +4413,13 @@
         <v>44834</v>
       </c>
       <c r="E55" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F55" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G55" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -4440,13 +4439,13 @@
         <v>45016</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F56" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4466,13 +4465,13 @@
         <v>45016</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F57" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -4492,13 +4491,13 @@
         <v>45016</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F58" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -4518,13 +4517,13 @@
         <v>45199</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F59" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G59" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -4544,13 +4543,13 @@
         <v>45199</v>
       </c>
       <c r="E60" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F60" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G60" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -4570,13 +4569,13 @@
         <v>45199</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F61" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G61" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -4596,13 +4595,13 @@
         <v>45382</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F62" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G62" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -4622,13 +4621,13 @@
         <v>45382</v>
       </c>
       <c r="E63" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F63" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G63" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -4648,13 +4647,13 @@
         <v>45382</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F64" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G64" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -4674,13 +4673,13 @@
         <v>45565</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G65" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -4700,13 +4699,13 @@
         <v>45565</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G66" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H66">
         <v>66</v>
@@ -4726,13 +4725,13 @@
         <v>45565</v>
       </c>
       <c r="E67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -4752,13 +4751,13 @@
         <v>45747</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G68" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -4778,13 +4777,13 @@
         <v>45747</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G69" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H69">
         <v>66</v>
@@ -4804,13 +4803,13 @@
         <v>45747</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F70" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G70" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -4830,13 +4829,13 @@
         <v>45930</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F71" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G71" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -4856,13 +4855,13 @@
         <v>45930</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F72" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G72" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -4882,13 +4881,13 @@
         <v>45930</v>
       </c>
       <c r="E73" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F73" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G73" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -4908,13 +4907,13 @@
         <v>46112</v>
       </c>
       <c r="E74" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F74" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G74" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -4934,13 +4933,13 @@
         <v>46112</v>
       </c>
       <c r="E75" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F75" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G75" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -4960,13 +4959,13 @@
         <v>46112</v>
       </c>
       <c r="E76" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F76" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G76" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -4986,13 +4985,13 @@
         <v>44104</v>
       </c>
       <c r="E77" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F77" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -5012,13 +5011,13 @@
         <v>44286</v>
       </c>
       <c r="E78" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F78" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G78" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -5038,13 +5037,13 @@
         <v>44469</v>
       </c>
       <c r="E79" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F79" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -5064,13 +5063,13 @@
         <v>44834</v>
       </c>
       <c r="E80" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F80" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G80" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -5090,13 +5089,13 @@
         <v>45016</v>
       </c>
       <c r="E81" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F81" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G81" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -5116,13 +5115,13 @@
         <v>45199</v>
       </c>
       <c r="E82" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F82" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G82" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -5142,13 +5141,13 @@
         <v>45382</v>
       </c>
       <c r="E83" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F83" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G83" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H83">
         <v>300</v>
@@ -5168,13 +5167,13 @@
         <v>45565</v>
       </c>
       <c r="E84" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F84" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G84" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -5194,13 +5193,13 @@
         <v>45747</v>
       </c>
       <c r="E85" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F85" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G85" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -5220,13 +5219,13 @@
         <v>45930</v>
       </c>
       <c r="E86" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F86" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G86" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5246,13 +5245,13 @@
         <v>46112</v>
       </c>
       <c r="E87" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F87" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G87" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5272,13 +5271,13 @@
         <v>44104</v>
       </c>
       <c r="E88" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F88" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -5298,13 +5297,13 @@
         <v>44104</v>
       </c>
       <c r="E89" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F89" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5324,13 +5323,13 @@
         <v>44286</v>
       </c>
       <c r="E90" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F90" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5350,13 +5349,13 @@
         <v>44286</v>
       </c>
       <c r="E91" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F91" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -5376,13 +5375,13 @@
         <v>44286</v>
       </c>
       <c r="E92" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -5402,13 +5401,13 @@
         <v>44469</v>
       </c>
       <c r="E93" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F93" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5428,13 +5427,13 @@
         <v>44469</v>
       </c>
       <c r="E94" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F94" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5454,13 +5453,13 @@
         <v>44469</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F95" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5480,13 +5479,13 @@
         <v>44834</v>
       </c>
       <c r="E96" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F96" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G96" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5506,13 +5505,13 @@
         <v>44834</v>
       </c>
       <c r="E97" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F97" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G97" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5532,13 +5531,13 @@
         <v>44834</v>
       </c>
       <c r="E98" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F98" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G98" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5558,13 +5557,13 @@
         <v>45016</v>
       </c>
       <c r="E99" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F99" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5584,13 +5583,13 @@
         <v>45016</v>
       </c>
       <c r="E100" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F100" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G100" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5610,13 +5609,13 @@
         <v>45016</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F101" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G101" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5636,13 +5635,13 @@
         <v>45199</v>
       </c>
       <c r="E102" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F102" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G102" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5662,13 +5661,13 @@
         <v>45199</v>
       </c>
       <c r="E103" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F103" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G103" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5688,13 +5687,13 @@
         <v>45199</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F104" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G104" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5714,13 +5713,13 @@
         <v>45382</v>
       </c>
       <c r="E105" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F105" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G105" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -5740,13 +5739,13 @@
         <v>45382</v>
       </c>
       <c r="E106" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F106" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G106" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -5766,13 +5765,13 @@
         <v>45382</v>
       </c>
       <c r="E107" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F107" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G107" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -5792,13 +5791,13 @@
         <v>45565</v>
       </c>
       <c r="E108" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F108" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G108" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -5818,13 +5817,13 @@
         <v>45565</v>
       </c>
       <c r="E109" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F109" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G109" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -5844,13 +5843,13 @@
         <v>45565</v>
       </c>
       <c r="E110" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F110" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G110" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -5870,13 +5869,13 @@
         <v>45747</v>
       </c>
       <c r="E111" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F111" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G111" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -5896,13 +5895,13 @@
         <v>45747</v>
       </c>
       <c r="E112" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F112" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G112" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -5922,13 +5921,13 @@
         <v>45747</v>
       </c>
       <c r="E113" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F113" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G113" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5948,13 +5947,13 @@
         <v>45930</v>
       </c>
       <c r="E114" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F114" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G114" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5974,13 +5973,13 @@
         <v>45930</v>
       </c>
       <c r="E115" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F115" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G115" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6000,13 +5999,13 @@
         <v>45930</v>
       </c>
       <c r="E116" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F116" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G116" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -6026,13 +6025,13 @@
         <v>46112</v>
       </c>
       <c r="E117" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F117" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G117" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -6052,13 +6051,13 @@
         <v>46112</v>
       </c>
       <c r="E118" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F118" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G118" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -6078,13 +6077,13 @@
         <v>46112</v>
       </c>
       <c r="E119" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F119" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G119" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -6119,15 +6118,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -6135,7 +6134,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -6143,55 +6142,55 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -6199,7 +6198,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -6207,7 +6206,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -6215,7 +6214,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -6223,23 +6222,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -6247,7 +6246,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
@@ -6255,7 +6254,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -6263,7 +6262,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -6271,7 +6270,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -6279,7 +6278,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -6287,7 +6286,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
@@ -6295,87 +6294,87 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B30" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -6383,7 +6382,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -6391,127 +6390,127 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B47" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -6519,15 +6518,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -6535,7 +6534,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -6543,7 +6542,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
@@ -6551,7 +6550,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B55" t="s">
         <v>39</v>
@@ -6559,7 +6558,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -6567,7 +6566,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -6575,7 +6574,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -6583,7 +6582,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -6591,7 +6590,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -6599,7 +6598,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
@@ -6607,7 +6606,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -6615,26 +6614,26 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6679,28 +6678,28 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" t="s">
         <v>195</v>
       </c>
-      <c r="E1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J1" t="s">
-        <v>199</v>
-      </c>
       <c r="K1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6717,22 +6716,22 @@
         <v>43951</v>
       </c>
       <c r="F2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I2">
         <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6749,22 +6748,22 @@
         <v>43982</v>
       </c>
       <c r="F3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I3">
         <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6781,22 +6780,22 @@
         <v>44012</v>
       </c>
       <c r="F4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I4">
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6813,22 +6812,22 @@
         <v>44043</v>
       </c>
       <c r="F5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6845,22 +6844,22 @@
         <v>44074</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I6">
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6877,22 +6876,22 @@
         <v>44104</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I7">
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6909,22 +6908,22 @@
         <v>44135</v>
       </c>
       <c r="F8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I8">
         <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6941,22 +6940,22 @@
         <v>44165</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I9">
         <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6973,22 +6972,22 @@
         <v>44196</v>
       </c>
       <c r="F10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I10">
         <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7005,22 +7004,22 @@
         <v>44227</v>
       </c>
       <c r="F11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I11">
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7037,22 +7036,22 @@
         <v>44255</v>
       </c>
       <c r="F12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I12">
         <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7069,22 +7068,22 @@
         <v>44286</v>
       </c>
       <c r="F13" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G13" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I13">
         <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7101,22 +7100,22 @@
         <v>44316</v>
       </c>
       <c r="F14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I14">
         <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7133,22 +7132,22 @@
         <v>44347</v>
       </c>
       <c r="F15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I15">
         <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7165,19 +7164,19 @@
         <v>44377</v>
       </c>
       <c r="F16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I16">
         <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -7194,19 +7193,19 @@
         <v>44408</v>
       </c>
       <c r="F17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -7223,19 +7222,19 @@
         <v>44439</v>
       </c>
       <c r="F18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I18">
         <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -7252,19 +7251,19 @@
         <v>44469</v>
       </c>
       <c r="F19" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G19" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I19">
         <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -7281,19 +7280,19 @@
         <v>44500</v>
       </c>
       <c r="F20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I20">
         <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -7310,22 +7309,22 @@
         <v>44530</v>
       </c>
       <c r="F21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H21" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I21">
         <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -7342,22 +7341,22 @@
         <v>44561</v>
       </c>
       <c r="F22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I22">
         <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -7374,22 +7373,22 @@
         <v>44227</v>
       </c>
       <c r="F23" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G23" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H23" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I23">
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -7406,22 +7405,22 @@
         <v>44620</v>
       </c>
       <c r="F24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I24">
         <v>71</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -7438,22 +7437,22 @@
         <v>44651</v>
       </c>
       <c r="F25" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G25" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H25" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I25">
         <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7470,22 +7469,22 @@
         <v>44681</v>
       </c>
       <c r="F26" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G26" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H26" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I26">
         <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -7502,22 +7501,22 @@
         <v>44712</v>
       </c>
       <c r="F27" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H27" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -7566,40 +7565,40 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" t="s">
         <v>282</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>283</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>284</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>285</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>286</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>287</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>288</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>289</v>
-      </c>
-      <c r="L1" t="s">
-        <v>290</v>
-      </c>
-      <c r="M1" t="s">
-        <v>291</v>
-      </c>
-      <c r="N1" t="s">
-        <v>292</v>
-      </c>
-      <c r="O1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -7610,40 +7609,40 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K2" t="s">
         <v>294</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>295</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
         <v>296</v>
       </c>
-      <c r="G2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>297</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>298</v>
-      </c>
-      <c r="L2" t="s">
-        <v>299</v>
-      </c>
-      <c r="M2" t="s">
-        <v>300</v>
-      </c>
-      <c r="N2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -7654,40 +7653,40 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K3" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" t="s">
+        <v>302</v>
+      </c>
+      <c r="M3" t="s">
         <v>296</v>
       </c>
-      <c r="G3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>297</v>
       </c>
-      <c r="K3" t="s">
-        <v>305</v>
-      </c>
-      <c r="L3" t="s">
-        <v>306</v>
-      </c>
-      <c r="M3" t="s">
-        <v>300</v>
-      </c>
-      <c r="N3" t="s">
-        <v>301</v>
-      </c>
       <c r="O3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -7698,40 +7697,40 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J4" t="s">
+        <v>305</v>
+      </c>
+      <c r="K4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" t="s">
         <v>307</v>
       </c>
-      <c r="E4" t="s">
+      <c r="M4" t="s">
+        <v>305</v>
+      </c>
+      <c r="N4" t="s">
         <v>308</v>
       </c>
-      <c r="F4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J4" t="s">
-        <v>309</v>
-      </c>
-      <c r="K4" t="s">
-        <v>310</v>
-      </c>
-      <c r="L4" t="s">
-        <v>311</v>
-      </c>
-      <c r="M4" t="s">
-        <v>309</v>
-      </c>
-      <c r="N4" t="s">
-        <v>312</v>
-      </c>
       <c r="O4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -7742,40 +7741,40 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -7786,40 +7785,40 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>295</v>
+      </c>
+      <c r="J6" t="s">
         <v>296</v>
       </c>
-      <c r="G6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" t="s">
-        <v>299</v>
-      </c>
-      <c r="J6" t="s">
-        <v>300</v>
-      </c>
       <c r="K6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -7830,40 +7829,40 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" t="s">
+        <v>302</v>
+      </c>
+      <c r="J7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M7" t="s">
+        <v>293</v>
+      </c>
+      <c r="N7" t="s">
         <v>308</v>
       </c>
-      <c r="F7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" t="s">
-        <v>306</v>
-      </c>
-      <c r="J7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M7" t="s">
-        <v>297</v>
-      </c>
-      <c r="N7" t="s">
-        <v>312</v>
-      </c>
       <c r="O7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7874,40 +7873,40 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J8" t="s">
+        <v>305</v>
+      </c>
+      <c r="K8" t="s">
+        <v>321</v>
+      </c>
+      <c r="L8" t="s">
+        <v>295</v>
+      </c>
+      <c r="M8" t="s">
         <v>296</v>
       </c>
-      <c r="G8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" t="s">
-        <v>306</v>
-      </c>
-      <c r="J8" t="s">
-        <v>309</v>
-      </c>
-      <c r="K8" t="s">
-        <v>325</v>
-      </c>
-      <c r="L8" t="s">
-        <v>299</v>
-      </c>
-      <c r="M8" t="s">
-        <v>300</v>
-      </c>
       <c r="N8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -7918,40 +7917,40 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K9" t="s">
+        <v>325</v>
+      </c>
+      <c r="L9" t="s">
+        <v>326</v>
+      </c>
+      <c r="M9" t="s">
         <v>296</v>
       </c>
-      <c r="G9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" t="s">
-        <v>306</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="N9" t="s">
         <v>297</v>
       </c>
-      <c r="K9" t="s">
-        <v>329</v>
-      </c>
-      <c r="L9" t="s">
-        <v>330</v>
-      </c>
-      <c r="M9" t="s">
-        <v>300</v>
-      </c>
-      <c r="N9" t="s">
-        <v>301</v>
-      </c>
       <c r="O9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7963,40 +7962,40 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" t="s">
+        <v>302</v>
+      </c>
+      <c r="J10" t="s">
+        <v>305</v>
+      </c>
+      <c r="K10" t="s">
+        <v>328</v>
+      </c>
+      <c r="L10" t="s">
+        <v>295</v>
+      </c>
+      <c r="M10" t="s">
         <v>296</v>
       </c>
-      <c r="G10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" t="s">
-        <v>306</v>
-      </c>
-      <c r="J10" t="s">
-        <v>309</v>
-      </c>
-      <c r="K10" t="s">
-        <v>332</v>
-      </c>
-      <c r="L10" t="s">
-        <v>299</v>
-      </c>
-      <c r="M10" t="s">
-        <v>300</v>
-      </c>
       <c r="N10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -8008,40 +8007,40 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" t="s">
+        <v>295</v>
+      </c>
+      <c r="J11" t="s">
+        <v>293</v>
+      </c>
+      <c r="K11" t="s">
+        <v>333</v>
+      </c>
+      <c r="L11" t="s">
+        <v>295</v>
+      </c>
+      <c r="M11" t="s">
         <v>296</v>
       </c>
-      <c r="G11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" t="s">
-        <v>299</v>
-      </c>
-      <c r="J11" t="s">
-        <v>297</v>
-      </c>
-      <c r="K11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L11" t="s">
-        <v>299</v>
-      </c>
-      <c r="M11" t="s">
-        <v>300</v>
-      </c>
       <c r="N11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -8053,40 +8052,40 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M12" t="s">
+        <v>293</v>
+      </c>
+      <c r="N12" t="s">
         <v>297</v>
       </c>
-      <c r="N12" t="s">
-        <v>301</v>
-      </c>
       <c r="O12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -8098,40 +8097,40 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E13" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" t="s">
+        <v>362</v>
+      </c>
+      <c r="J13" t="s">
+        <v>305</v>
+      </c>
+      <c r="K13" t="s">
+        <v>340</v>
+      </c>
+      <c r="L13" t="s">
+        <v>302</v>
+      </c>
+      <c r="M13" t="s">
+        <v>293</v>
+      </c>
+      <c r="N13" t="s">
         <v>308</v>
       </c>
-      <c r="F13" t="s">
-        <v>296</v>
-      </c>
-      <c r="G13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" t="s">
-        <v>366</v>
-      </c>
-      <c r="J13" t="s">
-        <v>309</v>
-      </c>
-      <c r="K13" t="s">
-        <v>344</v>
-      </c>
-      <c r="L13" t="s">
-        <v>306</v>
-      </c>
-      <c r="M13" t="s">
-        <v>297</v>
-      </c>
-      <c r="N13" t="s">
-        <v>312</v>
-      </c>
       <c r="O13" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -8143,40 +8142,40 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J14" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K14" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -8188,40 +8187,40 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E15" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F15" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J15" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L15" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -8233,40 +8232,40 @@
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E16" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F16" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" t="s">
+        <v>326</v>
+      </c>
+      <c r="J16" t="s">
         <v>296</v>
       </c>
-      <c r="G16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" t="s">
-        <v>330</v>
-      </c>
-      <c r="J16" t="s">
-        <v>300</v>
-      </c>
       <c r="K16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L16" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -8278,40 +8277,40 @@
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F17" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" t="s">
+        <v>326</v>
+      </c>
+      <c r="J17" t="s">
         <v>296</v>
       </c>
-      <c r="G17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" t="s">
-        <v>330</v>
-      </c>
-      <c r="J17" t="s">
-        <v>300</v>
-      </c>
       <c r="K17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -8323,40 +8322,40 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E18" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F18" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" t="s">
+        <v>326</v>
+      </c>
+      <c r="J18" t="s">
         <v>296</v>
       </c>
-      <c r="G18" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" t="s">
-        <v>330</v>
-      </c>
-      <c r="J18" t="s">
-        <v>300</v>
-      </c>
       <c r="K18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -8368,40 +8367,40 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E19" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" t="s">
+        <v>302</v>
+      </c>
+      <c r="J19" t="s">
+        <v>293</v>
+      </c>
+      <c r="K19" t="s">
+        <v>357</v>
+      </c>
+      <c r="L19" t="s">
+        <v>326</v>
+      </c>
+      <c r="M19" t="s">
         <v>296</v>
       </c>
-      <c r="G19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" t="s">
-        <v>306</v>
-      </c>
-      <c r="J19" t="s">
-        <v>297</v>
-      </c>
-      <c r="K19" t="s">
-        <v>361</v>
-      </c>
-      <c r="L19" t="s">
-        <v>330</v>
-      </c>
-      <c r="M19" t="s">
-        <v>300</v>
-      </c>
       <c r="N19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -8413,40 +8412,40 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K20" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L20" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -8458,40 +8457,40 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E21" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I21" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J21" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K21" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L21" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M21" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N21" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O21" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -8503,40 +8502,40 @@
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E22" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" t="s">
+        <v>307</v>
+      </c>
+      <c r="J22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K22" t="s">
+        <v>364</v>
+      </c>
+      <c r="L22" t="s">
+        <v>302</v>
+      </c>
+      <c r="M22" t="s">
+        <v>293</v>
+      </c>
+      <c r="N22" t="s">
         <v>308</v>
       </c>
-      <c r="F22" t="s">
-        <v>296</v>
-      </c>
-      <c r="G22" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" t="s">
-        <v>311</v>
-      </c>
-      <c r="J22" t="s">
-        <v>297</v>
-      </c>
-      <c r="K22" t="s">
-        <v>368</v>
-      </c>
-      <c r="L22" t="s">
-        <v>306</v>
-      </c>
-      <c r="M22" t="s">
-        <v>297</v>
-      </c>
-      <c r="N22" t="s">
-        <v>312</v>
-      </c>
       <c r="O22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -8548,40 +8547,40 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E23" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F23" t="s">
+        <v>292</v>
+      </c>
+      <c r="G23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" t="s">
+        <v>302</v>
+      </c>
+      <c r="J23" t="s">
+        <v>293</v>
+      </c>
+      <c r="K23" t="s">
+        <v>367</v>
+      </c>
+      <c r="L23" t="s">
+        <v>302</v>
+      </c>
+      <c r="M23" t="s">
         <v>296</v>
       </c>
-      <c r="G23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" t="s">
-        <v>306</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="N23" t="s">
         <v>297</v>
       </c>
-      <c r="K23" t="s">
-        <v>371</v>
-      </c>
-      <c r="L23" t="s">
-        <v>306</v>
-      </c>
-      <c r="M23" t="s">
-        <v>300</v>
-      </c>
-      <c r="N23" t="s">
-        <v>301</v>
-      </c>
       <c r="O23" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -8593,40 +8592,40 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" t="s">
+        <v>307</v>
+      </c>
+      <c r="J24" t="s">
         <v>296</v>
       </c>
-      <c r="G24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" t="s">
-        <v>311</v>
-      </c>
-      <c r="J24" t="s">
-        <v>300</v>
-      </c>
       <c r="K24" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L24" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M24" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -8638,40 +8637,40 @@
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E25" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F25" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" t="s">
+        <v>307</v>
+      </c>
+      <c r="J25" t="s">
         <v>296</v>
       </c>
-      <c r="G25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" t="s">
-        <v>311</v>
-      </c>
-      <c r="J25" t="s">
-        <v>300</v>
-      </c>
       <c r="K25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M25" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N25" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O25" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -8683,40 +8682,40 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E26" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F26" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I26" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J26" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L26" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M26" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="O26" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -8728,40 +8727,40 @@
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E27" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F27" t="s">
+        <v>292</v>
+      </c>
+      <c r="G27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" t="s">
+        <v>307</v>
+      </c>
+      <c r="J27" t="s">
         <v>296</v>
       </c>
-      <c r="G27" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" t="s">
-        <v>311</v>
-      </c>
-      <c r="J27" t="s">
-        <v>300</v>
-      </c>
       <c r="K27" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L27" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M27" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N27" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O27" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -8773,40 +8772,40 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E28" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F28" t="s">
+        <v>292</v>
+      </c>
+      <c r="G28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" t="s">
+        <v>302</v>
+      </c>
+      <c r="J28" t="s">
+        <v>293</v>
+      </c>
+      <c r="K28" t="s">
+        <v>381</v>
+      </c>
+      <c r="L28" t="s">
+        <v>295</v>
+      </c>
+      <c r="M28" t="s">
         <v>296</v>
       </c>
-      <c r="G28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" t="s">
-        <v>306</v>
-      </c>
-      <c r="J28" t="s">
-        <v>297</v>
-      </c>
-      <c r="K28" t="s">
-        <v>385</v>
-      </c>
-      <c r="L28" t="s">
-        <v>299</v>
-      </c>
-      <c r="M28" t="s">
-        <v>300</v>
-      </c>
       <c r="N28" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O28" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -8842,7 +8841,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -8898,7 +8897,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -9387,10 +9386,10 @@
         <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9401,16 +9400,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9421,16 +9420,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E3" s="9">
         <v>607784</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9441,16 +9440,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E4" s="9">
         <v>123456</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9461,16 +9460,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" s="9">
         <v>654321</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9481,16 +9480,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9501,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9521,16 +9520,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9541,16 +9540,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9561,13 +9560,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9578,13 +9577,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9595,16 +9594,16 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9615,16 +9614,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9635,16 +9634,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
         <v>114</v>
       </c>
-      <c r="D14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" t="s">
-        <v>118</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9655,16 +9654,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9675,10 +9674,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9689,10 +9688,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -9737,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
@@ -9749,10 +9748,10 @@
         <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -9766,7 +9765,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -9778,10 +9777,10 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9795,7 +9794,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
@@ -9807,7 +9806,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -9821,7 +9820,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
@@ -9833,10 +9832,10 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9850,7 +9849,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
@@ -9862,7 +9861,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9876,7 +9875,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -9888,7 +9887,7 @@
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9902,7 +9901,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -9925,7 +9924,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -9937,10 +9936,10 @@
         <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9954,7 +9953,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
@@ -9966,7 +9965,7 @@
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -10042,8 +10041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E8DE40-009E-4B3E-BD8A-08B04A259F7E}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10209,10 +10208,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBE28E4-3DB0-487F-AAD0-E345678244B7}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10221,14 +10220,14 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="53.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10245,16 +10244,19 @@
         <v>82</v>
       </c>
       <c r="F1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -10262,25 +10264,28 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
         <v>86</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44104</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -10288,25 +10293,28 @@
         <v>30</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44104</v>
+      </c>
+      <c r="H3" s="16">
+        <v>43300</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="16">
-        <v>43300</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -10314,25 +10322,28 @@
         <v>30</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="1">
+        <v>44105</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44286</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -10340,25 +10351,28 @@
         <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="1">
+        <v>44105</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44286</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -10366,25 +10380,28 @@
         <v>30</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="1">
+        <v>44105</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44286</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -10392,25 +10409,28 @@
         <v>30</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="1">
+        <v>44287</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44469</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -10418,25 +10438,28 @@
         <v>30</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="1">
+        <v>44287</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44469</v>
+      </c>
+      <c r="H8" s="18">
+        <v>113152</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="18">
-        <v>113152</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -10444,25 +10467,28 @@
         <v>30</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="16">
+        <v>98</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44287</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44469</v>
+      </c>
+      <c r="H9" s="16">
         <v>76166</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -10470,25 +10496,28 @@
         <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44652</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44834</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -10496,25 +10525,28 @@
         <v>30</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44652</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44834</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -10522,25 +10554,28 @@
         <v>30</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="F12" s="1">
+        <v>44652</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44834</v>
+      </c>
+      <c r="H12" s="19">
         <v>60000</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -10548,25 +10583,28 @@
         <v>30</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44835</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45016</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -10574,25 +10612,28 @@
         <v>30</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="E14" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44835</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45016</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -10600,56 +10641,59 @@
         <v>30</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44835</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45016</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="13"/>
-      <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10665,15 +10709,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
@@ -10682,6 +10717,15 @@
     <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10927,20 +10971,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CA70E21-41D5-415B-B329-A133B7922149}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70073AC4-B26C-493C-8C25-29DBD67F7B7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
     <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CA70E21-41D5-415B-B329-A133B7922149}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
+++ b/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SnapeN\Dev\funding-service-design-post-award-data-store\tests\controller_tests\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DobbsC\PycharmProjects\funding-service-design-post-award-data-store\tests\controller_tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AB6C83-C326-434A-8D25-E6C7CF2361E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298987C2-895A-443C-8482-7114591D781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5175" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="7" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
+    <workbookView xWindow="2190" yWindow="1800" windowWidth="32310" windowHeight="15435" firstSheet="6" activeTab="6" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission_Ref" sheetId="20" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="406">
   <si>
     <t>Submission ID</t>
   </si>
@@ -1260,6 +1260,15 @@
   </si>
   <si>
     <t>GIS Provided</t>
+  </si>
+  <si>
+    <t>Postcodes</t>
+  </si>
+  <si>
+    <t>SW1A 2AA, example location</t>
+  </si>
+  <si>
+    <t>SW1A 2AA,BT1 1AA</t>
   </si>
 </sst>
 </file>
@@ -1413,6 +1422,18 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -1427,18 +1448,6 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1474,7 +1483,7 @@
     <tableColumn id="3" xr3:uid="{8950D16B-3257-4FD9-9209-91782FB1847C}" name="Townsfund Funding"/>
     <tableColumn id="4" xr3:uid="{42D9447C-F1D5-4248-8FD8-D6A1E53CD4FA}" name="Private Sector Funding Required"/>
     <tableColumn id="5" xr3:uid="{D2CCA7A1-0565-4275-8174-63583B5641B3}" name="Private Sector Funding Secured"/>
-    <tableColumn id="1" xr3:uid="{839BF95B-13D1-4C30-A711-1F8084FA3A46}" name="Additional Comments" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{839BF95B-13D1-4C30-A711-1F8084FA3A46}" name="Additional Comments" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1525,12 +1534,12 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{8537E16F-E797-4E37-88C9-434B275E47FF}" name="Project ID"/>
     <tableColumn id="9" xr3:uid="{D4160626-660D-43E1-8026-277F46FD67C0}" name="Programme ID"/>
-    <tableColumn id="2" xr3:uid="{570DDDB8-B36A-46F5-92BC-965A389460F7}" name="Start_Date" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C6CD430A-E931-4BB6-BB6E-DDB49D07DF48}" name="End_Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{570DDDB8-B36A-46F5-92BC-965A389460F7}" name="Start_Date" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C6CD430A-E931-4BB6-BB6E-DDB49D07DF48}" name="End_Date" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{900E6096-72C0-4BB1-83C2-947FF46110E9}" name="Outcome"/>
     <tableColumn id="5" xr3:uid="{79C9218D-BBE0-4D8F-A799-35A0ECCBA6EA}" name="UnitofMeasurement"/>
     <tableColumn id="6" xr3:uid="{FF2CB41E-3A92-492C-AE6D-D96513330D69}" name="GeographyIndicator"/>
-    <tableColumn id="7" xr3:uid="{7B14AE8F-255A-468D-9664-209C5422934F}" name="Amount" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{7B14AE8F-255A-468D-9664-209C5422934F}" name="Amount" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{0F2A7BA4-AEDC-42D9-94CD-5CD8E178E408}" name="Actual/Forecast"/>
     <tableColumn id="11" xr3:uid="{421424EF-099E-4EAA-9115-B2CFFB224759}" name="Higher Frequency"/>
   </tableColumns>
@@ -1616,9 +1625,9 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{58B2215B-BB35-4202-BB72-BEDFDCA878F6}" name="Table12" displayName="Table12" ref="A1:I9" totalsRowShown="0">
-  <autoFilter ref="A1:I9" xr:uid="{58B2215B-BB35-4202-BB72-BEDFDCA878F6}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{58B2215B-BB35-4202-BB72-BEDFDCA878F6}" name="Table12" displayName="Table12" ref="A1:J9" totalsRowShown="0">
+  <autoFilter ref="A1:J9" xr:uid="{58B2215B-BB35-4202-BB72-BEDFDCA878F6}"/>
+  <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{839B46E7-B168-4B9E-A694-7DCDD22CB60B}" name="Project ID"/>
     <tableColumn id="7" xr3:uid="{7A79B4CF-CCAB-447B-B607-9620980DD5FE}" name="Submission ID"/>
     <tableColumn id="2" xr3:uid="{677D3277-CB52-4DE9-9DED-741A1FC4FD2E}" name="Programme ID"/>
@@ -1626,6 +1635,7 @@
     <tableColumn id="4" xr3:uid="{7F49D6D7-6D62-463F-AEAA-F506EF803F0C}" name="Primary Intervention Theme"/>
     <tableColumn id="5" xr3:uid="{D8406B66-B5E0-47A0-B8AC-9236F3A24B8D}" name="Single or Multiple Locations"/>
     <tableColumn id="1" xr3:uid="{106938F4-FA9F-4D44-95FC-F6EA7DB8029A}" name="Locations"/>
+    <tableColumn id="11" xr3:uid="{003140ED-B03C-4E83-820F-290EA7E88C46}" name="Postcodes"/>
     <tableColumn id="8" xr3:uid="{71285834-179B-4577-8EA8-5D36A100ED48}" name="GIS Provided"/>
     <tableColumn id="9" xr3:uid="{CCEBE39A-8B8B-47CB-8B79-166126BA6E9A}" name="Lat/Long"/>
   </tableColumns>
@@ -1663,8 +1673,8 @@
     <tableColumn id="2" xr3:uid="{4446533C-3A7E-4CC9-A147-F8E4F6E140A5}" name="Funding Source Name"/>
     <tableColumn id="3" xr3:uid="{B77FCEE0-D5EB-4D8D-B8EE-81B086635306}" name="Funding Source Type"/>
     <tableColumn id="4" xr3:uid="{09EFF7B4-5759-483D-8894-DA967909D34C}" name="Secured"/>
-    <tableColumn id="1" xr3:uid="{F0E11478-A8DE-4C32-891D-004E7C1CC338}" name="Start_Date" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{D171D8BE-5473-4026-9113-F75851A24BA3}" name="End_Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F0E11478-A8DE-4C32-891D-004E7C1CC338}" name="Start_Date" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{D171D8BE-5473-4026-9113-F75851A24BA3}" name="End_Date" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{EBBED273-C141-4990-8ACA-C4CDB99F78FC}" name="Spend for Reporting Period"/>
     <tableColumn id="10" xr3:uid="{5927EFE4-3ED3-46F2-9BA7-6ABE2C41AE29}" name="Actual / Forecast"/>
   </tableColumns>
@@ -9708,10 +9718,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DDC13-8AF0-4935-A621-88AD3C9E9DD9}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9720,12 +9730,13 @@
     <col min="2" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -9748,13 +9759,16 @@
         <v>26</v>
       </c>
       <c r="H1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I1" t="s">
         <v>402</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -9774,16 +9788,19 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>87</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -9806,10 +9823,13 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -9832,13 +9852,16 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
+        <v>405</v>
+      </c>
+      <c r="I4" t="s">
         <v>98</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -9861,10 +9884,13 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -9886,11 +9912,14 @@
       <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -9912,8 +9941,11 @@
       <c r="G7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -9936,13 +9968,16 @@
         <v>29</v>
       </c>
       <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
         <v>87</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -9965,14 +10000,17 @@
         <v>29</v>
       </c>
       <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -10041,8 +10079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E8DE40-009E-4B3E-BD8A-08B04A259F7E}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10709,26 +10747,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB5DDB95A7ECBD49AA08D06BA3EF1CDA" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="95a99fb7649f76cf16eb4f5cafa7cbc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="681fe441-c46c-4ea5-a5c5-b45872725697" xmlns:ns3="6bac55d2-c587-47e2-866b-bbb6fe14d104" xmlns:ns4="83a87e31-bf32-46ab-8e70-9fa18461fa4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbf7ff0d2c127a9a42e650b92ffbc482" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="681fe441-c46c-4ea5-a5c5-b45872725697"/>
@@ -10970,26 +10988,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70073AC4-B26C-493C-8C25-29DBD67F7B7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CA70E21-41D5-415B-B329-A133B7922149}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9931E176-D5AF-4D57-88FA-0E21DE56657D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11009,6 +11028,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CA70E21-41D5-415B-B329-A133B7922149}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70073AC4-B26C-493C-8C25-29DBD67F7B7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{95c71a0f-75e1-4c8f-90e2-641c9351dd98}" enabled="1" method="Standard" siteId="{3e0088dc-0629-4ae6-aa8c-813e7a296f50}" removed="0"/>

--- a/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
+++ b/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DobbsC\PycharmProjects\funding-service-design-post-award-data-store\tests\controller_tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39AAD6C-D258-440B-AE5F-FCE42F24EA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3C8067-9751-4DF3-B3FD-577599EE77C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" firstSheet="10" activeTab="14" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
+    <workbookView xWindow="75" yWindow="1605" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="8" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission_Ref" sheetId="20" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="405">
   <si>
     <t>Programme ID</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>Spend for Reporting Period</t>
-  </si>
-  <si>
-    <t>Actual / Forecast</t>
   </si>
   <si>
     <t>Towns Fund CDEL which is being utilised on TF project related activity (For Town Deals, this excludes the 5% CDEL Pre-Payment)</t>
@@ -1668,7 +1665,7 @@
     <tableColumn id="1" xr3:uid="{F0E11478-A8DE-4C32-891D-004E7C1CC338}" name="Start_Date" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{D171D8BE-5473-4026-9113-F75851A24BA3}" name="End_Date" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{EBBED273-C141-4990-8ACA-C4CDB99F78FC}" name="Spend for Reporting Period"/>
-    <tableColumn id="10" xr3:uid="{5927EFE4-3ED3-46F2-9BA7-6ABE2C41AE29}" name="Actual / Forecast"/>
+    <tableColumn id="10" xr3:uid="{5927EFE4-3ED3-46F2-9BA7-6ABE2C41AE29}" name="Actual/Forecast"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1997,16 +1994,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" t="s">
         <v>380</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>381</v>
       </c>
-      <c r="C1" t="s">
-        <v>382</v>
-      </c>
       <c r="D1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2047,7 +2044,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2055,7 +2052,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2063,7 +2060,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2071,7 +2068,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2079,7 +2076,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2087,7 +2084,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2095,7 +2092,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,7 +2100,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2111,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2149,19 +2146,19 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
-        <v>120</v>
-      </c>
       <c r="F1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2201,7 +2198,7 @@
         <v>50000</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2221,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2241,7 +2238,7 @@
         <v>1000000</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2261,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2301,7 +2298,7 @@
         <v>100000</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2321,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2349,39 +2346,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
         <v>121</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -2389,7 +2386,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -2397,7 +2394,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -2405,7 +2402,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -2413,7 +2410,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -2421,7 +2418,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -2429,7 +2426,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -2437,7 +2434,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -2445,7 +2442,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -2453,7 +2450,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -2461,7 +2458,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -2469,7 +2466,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -2477,7 +2474,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -2485,7 +2482,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -2493,346 +2490,346 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" t="s">
         <v>141</v>
-      </c>
-      <c r="B19" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" t="s">
         <v>144</v>
-      </c>
-      <c r="B21" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
         <v>150</v>
-      </c>
-      <c r="B26" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" t="s">
         <v>156</v>
-      </c>
-      <c r="B31" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" t="s">
         <v>160</v>
-      </c>
-      <c r="B34" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
         <v>163</v>
-      </c>
-      <c r="B36" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" t="s">
         <v>178</v>
-      </c>
-      <c r="B50" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2868,25 +2865,25 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
         <v>189</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>190</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>191</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>192</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>193</v>
       </c>
-      <c r="G1" t="s">
-        <v>194</v>
-      </c>
       <c r="H1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2900,19 +2897,19 @@
         <v>44104</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2926,19 +2923,19 @@
         <v>44104</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2952,19 +2949,19 @@
         <v>44286</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2978,19 +2975,19 @@
         <v>44286</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3004,19 +3001,19 @@
         <v>44286</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3030,19 +3027,19 @@
         <v>44469</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7">
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3056,19 +3053,19 @@
         <v>44469</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3082,19 +3079,19 @@
         <v>44469</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3108,19 +3105,19 @@
         <v>44834</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10">
         <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3134,19 +3131,19 @@
         <v>44834</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3160,19 +3157,19 @@
         <v>44834</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3186,19 +3183,19 @@
         <v>45016</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13">
         <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3212,19 +3209,19 @@
         <v>45016</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3238,19 +3235,19 @@
         <v>45016</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3264,13 +3261,13 @@
         <v>45199</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3287,19 +3284,19 @@
         <v>45199</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3313,13 +3310,13 @@
         <v>45199</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3336,13 +3333,13 @@
         <v>45382</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3359,13 +3356,13 @@
         <v>45382</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3382,19 +3379,19 @@
         <v>45382</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3408,19 +3405,19 @@
         <v>45565</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3434,19 +3431,19 @@
         <v>45565</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23">
         <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3460,19 +3457,19 @@
         <v>45565</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3486,19 +3483,19 @@
         <v>45747</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3512,19 +3509,19 @@
         <v>45747</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26">
         <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3538,19 +3535,19 @@
         <v>45747</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3564,13 +3561,13 @@
         <v>45930</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3587,13 +3584,13 @@
         <v>45930</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29">
         <v>66</v>
@@ -3610,13 +3607,13 @@
         <v>45930</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3633,13 +3630,13 @@
         <v>46112</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3656,13 +3653,13 @@
         <v>46112</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32">
         <v>66</v>
@@ -3679,13 +3676,13 @@
         <v>46112</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3702,13 +3699,13 @@
         <v>44104</v>
       </c>
       <c r="D34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" t="s">
         <v>196</v>
       </c>
-      <c r="E34" t="s">
-        <v>197</v>
-      </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3725,13 +3722,13 @@
         <v>44286</v>
       </c>
       <c r="D35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" t="s">
         <v>196</v>
       </c>
-      <c r="E35" t="s">
-        <v>197</v>
-      </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3748,13 +3745,13 @@
         <v>44469</v>
       </c>
       <c r="D36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" t="s">
         <v>196</v>
       </c>
-      <c r="E36" t="s">
-        <v>197</v>
-      </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3771,13 +3768,13 @@
         <v>44834</v>
       </c>
       <c r="D37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" t="s">
         <v>196</v>
       </c>
-      <c r="E37" t="s">
-        <v>197</v>
-      </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3794,13 +3791,13 @@
         <v>45016</v>
       </c>
       <c r="D38" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" t="s">
         <v>196</v>
       </c>
-      <c r="E38" t="s">
-        <v>197</v>
-      </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3817,13 +3814,13 @@
         <v>45199</v>
       </c>
       <c r="D39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" t="s">
         <v>196</v>
       </c>
-      <c r="E39" t="s">
-        <v>197</v>
-      </c>
       <c r="F39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3840,13 +3837,13 @@
         <v>45382</v>
       </c>
       <c r="D40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" t="s">
         <v>196</v>
       </c>
-      <c r="E40" t="s">
-        <v>197</v>
-      </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3863,13 +3860,13 @@
         <v>45565</v>
       </c>
       <c r="D41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" t="s">
         <v>196</v>
       </c>
-      <c r="E41" t="s">
-        <v>197</v>
-      </c>
       <c r="F41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G41">
         <v>66</v>
@@ -3886,13 +3883,13 @@
         <v>45747</v>
       </c>
       <c r="D42" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" t="s">
         <v>196</v>
       </c>
-      <c r="E42" t="s">
-        <v>197</v>
-      </c>
       <c r="F42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3909,13 +3906,13 @@
         <v>45930</v>
       </c>
       <c r="D43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" t="s">
         <v>196</v>
       </c>
-      <c r="E43" t="s">
-        <v>197</v>
-      </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3932,13 +3929,13 @@
         <v>46112</v>
       </c>
       <c r="D44" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" t="s">
         <v>196</v>
       </c>
-      <c r="E44" t="s">
-        <v>197</v>
-      </c>
       <c r="F44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3955,13 +3952,13 @@
         <v>44104</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3978,13 +3975,13 @@
         <v>44104</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4001,13 +3998,13 @@
         <v>44286</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4024,13 +4021,13 @@
         <v>44286</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4047,13 +4044,13 @@
         <v>44286</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4070,13 +4067,13 @@
         <v>44469</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4093,13 +4090,13 @@
         <v>44469</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4116,13 +4113,13 @@
         <v>44469</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4139,13 +4136,13 @@
         <v>44834</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4162,13 +4159,13 @@
         <v>44834</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4185,13 +4182,13 @@
         <v>44834</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4208,13 +4205,13 @@
         <v>45016</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4231,13 +4228,13 @@
         <v>45016</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -4254,13 +4251,13 @@
         <v>45016</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4277,13 +4274,13 @@
         <v>45199</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -4300,13 +4297,13 @@
         <v>45199</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -4323,13 +4320,13 @@
         <v>45199</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -4346,13 +4343,13 @@
         <v>45382</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4369,13 +4366,13 @@
         <v>45382</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -4392,13 +4389,13 @@
         <v>45382</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -4415,13 +4412,13 @@
         <v>45565</v>
       </c>
       <c r="D65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4438,13 +4435,13 @@
         <v>45565</v>
       </c>
       <c r="D66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G66">
         <v>66</v>
@@ -4461,13 +4458,13 @@
         <v>45565</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -4484,13 +4481,13 @@
         <v>45747</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -4507,13 +4504,13 @@
         <v>45747</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G69">
         <v>66</v>
@@ -4530,13 +4527,13 @@
         <v>45747</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4553,13 +4550,13 @@
         <v>45930</v>
       </c>
       <c r="D71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4576,13 +4573,13 @@
         <v>45930</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4599,13 +4596,13 @@
         <v>45930</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4622,13 +4619,13 @@
         <v>46112</v>
       </c>
       <c r="D74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4645,13 +4642,13 @@
         <v>46112</v>
       </c>
       <c r="D75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -4668,13 +4665,13 @@
         <v>46112</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4691,13 +4688,13 @@
         <v>44104</v>
       </c>
       <c r="D77" t="s">
+        <v>197</v>
+      </c>
+      <c r="E77" t="s">
         <v>198</v>
       </c>
-      <c r="E77" t="s">
-        <v>199</v>
-      </c>
       <c r="F77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4714,13 +4711,13 @@
         <v>44286</v>
       </c>
       <c r="D78" t="s">
+        <v>197</v>
+      </c>
+      <c r="E78" t="s">
         <v>198</v>
       </c>
-      <c r="E78" t="s">
-        <v>199</v>
-      </c>
       <c r="F78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4737,13 +4734,13 @@
         <v>44469</v>
       </c>
       <c r="D79" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" t="s">
         <v>198</v>
       </c>
-      <c r="E79" t="s">
-        <v>199</v>
-      </c>
       <c r="F79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4760,13 +4757,13 @@
         <v>44834</v>
       </c>
       <c r="D80" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" t="s">
         <v>198</v>
       </c>
-      <c r="E80" t="s">
-        <v>199</v>
-      </c>
       <c r="F80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -4783,13 +4780,13 @@
         <v>45016</v>
       </c>
       <c r="D81" t="s">
+        <v>197</v>
+      </c>
+      <c r="E81" t="s">
         <v>198</v>
       </c>
-      <c r="E81" t="s">
-        <v>199</v>
-      </c>
       <c r="F81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -4806,13 +4803,13 @@
         <v>45199</v>
       </c>
       <c r="D82" t="s">
+        <v>197</v>
+      </c>
+      <c r="E82" t="s">
         <v>198</v>
       </c>
-      <c r="E82" t="s">
-        <v>199</v>
-      </c>
       <c r="F82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -4829,13 +4826,13 @@
         <v>45382</v>
       </c>
       <c r="D83" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" t="s">
         <v>198</v>
       </c>
-      <c r="E83" t="s">
-        <v>199</v>
-      </c>
       <c r="F83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G83">
         <v>300</v>
@@ -4852,13 +4849,13 @@
         <v>45565</v>
       </c>
       <c r="D84" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" t="s">
         <v>198</v>
       </c>
-      <c r="E84" t="s">
-        <v>199</v>
-      </c>
       <c r="F84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -4875,13 +4872,13 @@
         <v>45747</v>
       </c>
       <c r="D85" t="s">
+        <v>197</v>
+      </c>
+      <c r="E85" t="s">
         <v>198</v>
       </c>
-      <c r="E85" t="s">
-        <v>199</v>
-      </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4898,13 +4895,13 @@
         <v>45930</v>
       </c>
       <c r="D86" t="s">
+        <v>197</v>
+      </c>
+      <c r="E86" t="s">
         <v>198</v>
       </c>
-      <c r="E86" t="s">
-        <v>199</v>
-      </c>
       <c r="F86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -4921,13 +4918,13 @@
         <v>46112</v>
       </c>
       <c r="D87" t="s">
+        <v>197</v>
+      </c>
+      <c r="E87" t="s">
         <v>198</v>
       </c>
-      <c r="E87" t="s">
-        <v>199</v>
-      </c>
       <c r="F87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -4944,13 +4941,13 @@
         <v>44104</v>
       </c>
       <c r="D88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -4967,13 +4964,13 @@
         <v>44104</v>
       </c>
       <c r="D89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -4990,13 +4987,13 @@
         <v>44286</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -5013,13 +5010,13 @@
         <v>44286</v>
       </c>
       <c r="D91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5036,13 +5033,13 @@
         <v>44286</v>
       </c>
       <c r="D92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5059,13 +5056,13 @@
         <v>44469</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -5082,13 +5079,13 @@
         <v>44469</v>
       </c>
       <c r="D94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -5105,13 +5102,13 @@
         <v>44469</v>
       </c>
       <c r="D95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5128,13 +5125,13 @@
         <v>44834</v>
       </c>
       <c r="D96" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5151,13 +5148,13 @@
         <v>44834</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -5174,13 +5171,13 @@
         <v>44834</v>
       </c>
       <c r="D98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -5197,13 +5194,13 @@
         <v>45016</v>
       </c>
       <c r="D99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -5220,13 +5217,13 @@
         <v>45016</v>
       </c>
       <c r="D100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -5243,13 +5240,13 @@
         <v>45016</v>
       </c>
       <c r="D101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5266,13 +5263,13 @@
         <v>45199</v>
       </c>
       <c r="D102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -5289,13 +5286,13 @@
         <v>45199</v>
       </c>
       <c r="D103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -5312,13 +5309,13 @@
         <v>45199</v>
       </c>
       <c r="D104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -5335,13 +5332,13 @@
         <v>45382</v>
       </c>
       <c r="D105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5358,13 +5355,13 @@
         <v>45382</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5381,13 +5378,13 @@
         <v>45382</v>
       </c>
       <c r="D107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F107" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -5404,13 +5401,13 @@
         <v>45565</v>
       </c>
       <c r="D108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F108" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -5427,13 +5424,13 @@
         <v>45565</v>
       </c>
       <c r="D109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F109" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -5450,13 +5447,13 @@
         <v>45565</v>
       </c>
       <c r="D110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F110" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -5473,13 +5470,13 @@
         <v>45747</v>
       </c>
       <c r="D111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E111" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -5496,13 +5493,13 @@
         <v>45747</v>
       </c>
       <c r="D112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F112" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -5519,13 +5516,13 @@
         <v>45747</v>
       </c>
       <c r="D113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F113" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -5542,13 +5539,13 @@
         <v>45930</v>
       </c>
       <c r="D114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F114" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -5565,13 +5562,13 @@
         <v>45930</v>
       </c>
       <c r="D115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F115" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5588,13 +5585,13 @@
         <v>45930</v>
       </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E116" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F116" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5611,13 +5608,13 @@
         <v>46112</v>
       </c>
       <c r="D117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -5634,13 +5631,13 @@
         <v>46112</v>
       </c>
       <c r="D118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E118" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F118" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -5657,13 +5654,13 @@
         <v>46112</v>
       </c>
       <c r="D119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E119" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F119" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -5695,15 +5692,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
         <v>200</v>
-      </c>
-      <c r="B1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -5711,7 +5708,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -5719,55 +5716,55 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
         <v>204</v>
-      </c>
-      <c r="B4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
         <v>206</v>
-      </c>
-      <c r="B5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" t="s">
         <v>211</v>
-      </c>
-      <c r="B9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -5775,7 +5772,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -5783,7 +5780,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -5791,7 +5788,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -5799,23 +5796,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -5823,7 +5820,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -5831,7 +5828,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -5839,7 +5836,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -5847,7 +5844,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -5855,7 +5852,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -5863,7 +5860,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -5871,87 +5868,87 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" t="s">
         <v>229</v>
-      </c>
-      <c r="B26" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" t="s">
         <v>234</v>
-      </c>
-      <c r="B30" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -5959,7 +5956,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -5967,127 +5964,127 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" t="s">
         <v>240</v>
-      </c>
-      <c r="B35" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
@@ -6095,15 +6092,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -6111,7 +6108,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -6119,7 +6116,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -6127,7 +6124,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -6135,7 +6132,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -6143,7 +6140,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -6151,7 +6148,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -6159,7 +6156,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -6167,7 +6164,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
@@ -6175,7 +6172,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -6183,7 +6180,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -6191,26 +6188,26 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6225,7 +6222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4717C6AB-1205-4862-A377-00B1F94B35FD}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -6251,28 +6248,28 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" t="s">
         <v>189</v>
       </c>
-      <c r="D1" t="s">
-        <v>190</v>
-      </c>
       <c r="E1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" t="s">
         <v>271</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>272</v>
       </c>
-      <c r="G1" t="s">
-        <v>273</v>
-      </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -6286,22 +6283,22 @@
         <v>43951</v>
       </c>
       <c r="E2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" t="s">
         <v>274</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>275</v>
       </c>
       <c r="H2">
         <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -6315,22 +6312,22 @@
         <v>43982</v>
       </c>
       <c r="E3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" t="s">
         <v>274</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>275</v>
       </c>
       <c r="H3">
         <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -6344,22 +6341,22 @@
         <v>44012</v>
       </c>
       <c r="E4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" t="s">
         <v>274</v>
-      </c>
-      <c r="F4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" t="s">
-        <v>275</v>
       </c>
       <c r="H4">
         <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6373,22 +6370,22 @@
         <v>44043</v>
       </c>
       <c r="E5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" t="s">
         <v>274</v>
-      </c>
-      <c r="F5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" t="s">
-        <v>275</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -6402,22 +6399,22 @@
         <v>44074</v>
       </c>
       <c r="E6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" t="s">
         <v>274</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" t="s">
-        <v>275</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6431,22 +6428,22 @@
         <v>44104</v>
       </c>
       <c r="E7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" t="s">
         <v>274</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" t="s">
-        <v>275</v>
       </c>
       <c r="H7">
         <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -6460,22 +6457,22 @@
         <v>44135</v>
       </c>
       <c r="E8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" t="s">
         <v>274</v>
-      </c>
-      <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>275</v>
       </c>
       <c r="H8">
         <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6489,22 +6486,22 @@
         <v>44165</v>
       </c>
       <c r="E9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" t="s">
         <v>274</v>
-      </c>
-      <c r="F9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>275</v>
       </c>
       <c r="H9">
         <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -6518,22 +6515,22 @@
         <v>44196</v>
       </c>
       <c r="E10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" t="s">
         <v>274</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" t="s">
-        <v>275</v>
       </c>
       <c r="H10">
         <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -6547,22 +6544,22 @@
         <v>44227</v>
       </c>
       <c r="E11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" t="s">
         <v>274</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>275</v>
       </c>
       <c r="H11">
         <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6576,22 +6573,22 @@
         <v>44255</v>
       </c>
       <c r="E12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" t="s">
         <v>274</v>
-      </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>275</v>
       </c>
       <c r="H12">
         <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -6605,22 +6602,22 @@
         <v>44286</v>
       </c>
       <c r="E13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" t="s">
         <v>274</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>275</v>
       </c>
       <c r="H13">
         <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -6634,22 +6631,22 @@
         <v>44316</v>
       </c>
       <c r="E14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" t="s">
         <v>274</v>
-      </c>
-      <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" t="s">
-        <v>275</v>
       </c>
       <c r="H14">
         <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -6663,22 +6660,22 @@
         <v>44347</v>
       </c>
       <c r="E15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" t="s">
         <v>274</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>275</v>
       </c>
       <c r="H15">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -6692,19 +6689,19 @@
         <v>44377</v>
       </c>
       <c r="E16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" t="s">
         <v>274</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>275</v>
       </c>
       <c r="H16">
         <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -6718,19 +6715,19 @@
         <v>44408</v>
       </c>
       <c r="E17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" t="s">
         <v>274</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>275</v>
       </c>
       <c r="H17">
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -6744,19 +6741,19 @@
         <v>44439</v>
       </c>
       <c r="E18" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" t="s">
         <v>274</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>275</v>
       </c>
       <c r="H18">
         <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -6770,19 +6767,19 @@
         <v>44469</v>
       </c>
       <c r="E19" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" t="s">
         <v>274</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>275</v>
       </c>
       <c r="H19">
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -6796,19 +6793,19 @@
         <v>44500</v>
       </c>
       <c r="E20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" t="s">
         <v>274</v>
-      </c>
-      <c r="F20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" t="s">
-        <v>275</v>
       </c>
       <c r="H20">
         <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -6822,22 +6819,22 @@
         <v>44530</v>
       </c>
       <c r="E21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" t="s">
         <v>274</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>275</v>
       </c>
       <c r="H21">
         <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -6851,22 +6848,22 @@
         <v>44561</v>
       </c>
       <c r="E22" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" t="s">
         <v>274</v>
-      </c>
-      <c r="F22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>275</v>
       </c>
       <c r="H22">
         <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -6880,22 +6877,22 @@
         <v>44227</v>
       </c>
       <c r="E23" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" t="s">
         <v>274</v>
-      </c>
-      <c r="F23" t="s">
-        <v>274</v>
-      </c>
-      <c r="G23" t="s">
-        <v>275</v>
       </c>
       <c r="H23">
         <v>8</v>
       </c>
       <c r="I23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -6909,22 +6906,22 @@
         <v>44620</v>
       </c>
       <c r="E24" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" t="s">
         <v>274</v>
-      </c>
-      <c r="F24" t="s">
-        <v>274</v>
-      </c>
-      <c r="G24" t="s">
-        <v>275</v>
       </c>
       <c r="H24">
         <v>71</v>
       </c>
       <c r="I24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -6938,22 +6935,22 @@
         <v>44651</v>
       </c>
       <c r="E25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" t="s">
         <v>274</v>
-      </c>
-      <c r="F25" t="s">
-        <v>274</v>
-      </c>
-      <c r="G25" t="s">
-        <v>275</v>
       </c>
       <c r="H25">
         <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6967,22 +6964,22 @@
         <v>44681</v>
       </c>
       <c r="E26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F26" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" t="s">
         <v>274</v>
-      </c>
-      <c r="F26" t="s">
-        <v>274</v>
-      </c>
-      <c r="G26" t="s">
-        <v>275</v>
       </c>
       <c r="H26">
         <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -6996,22 +6993,22 @@
         <v>44712</v>
       </c>
       <c r="E27" t="s">
+        <v>273</v>
+      </c>
+      <c r="F27" t="s">
+        <v>273</v>
+      </c>
+      <c r="G27" t="s">
         <v>274</v>
-      </c>
-      <c r="F27" t="s">
-        <v>274</v>
-      </c>
-      <c r="G27" t="s">
-        <v>275</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -7056,40 +7053,40 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" t="s">
         <v>276</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>277</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>278</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>279</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>280</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>281</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>282</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>283</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>284</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>285</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>286</v>
-      </c>
-      <c r="N1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -7097,40 +7094,40 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" t="s">
         <v>288</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>289</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I2" t="s">
         <v>290</v>
       </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>291</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>292</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>293</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>294</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>295</v>
-      </c>
-      <c r="N2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7138,40 +7135,40 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" t="s">
         <v>297</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" t="s">
         <v>298</v>
       </c>
-      <c r="E3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I3" t="s">
-        <v>291</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>299</v>
       </c>
-      <c r="K3" t="s">
-        <v>300</v>
-      </c>
       <c r="L3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M3" t="s">
         <v>294</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>295</v>
-      </c>
-      <c r="N3" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7179,40 +7176,40 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" t="s">
         <v>301</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I4" t="s">
         <v>302</v>
       </c>
-      <c r="E4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" t="s">
-        <v>360</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>303</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>304</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M4" t="s">
         <v>305</v>
       </c>
-      <c r="L4" t="s">
-        <v>303</v>
-      </c>
-      <c r="M4" t="s">
-        <v>306</v>
-      </c>
       <c r="N4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -7220,40 +7217,40 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" t="s">
         <v>307</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>299</v>
+      </c>
+      <c r="I5" t="s">
+        <v>302</v>
+      </c>
+      <c r="J5" t="s">
         <v>308</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" t="s">
+        <v>299</v>
+      </c>
+      <c r="L5" t="s">
         <v>290</v>
       </c>
-      <c r="F5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I5" t="s">
-        <v>303</v>
-      </c>
-      <c r="J5" t="s">
-        <v>309</v>
-      </c>
-      <c r="K5" t="s">
-        <v>300</v>
-      </c>
-      <c r="L5" t="s">
-        <v>291</v>
-      </c>
       <c r="M5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -7261,40 +7258,40 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" t="s">
         <v>310</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I6" t="s">
+        <v>293</v>
+      </c>
+      <c r="J6" t="s">
         <v>311</v>
       </c>
-      <c r="E6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
+        <v>292</v>
+      </c>
+      <c r="L6" t="s">
         <v>293</v>
       </c>
-      <c r="I6" t="s">
-        <v>294</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>312</v>
       </c>
-      <c r="K6" t="s">
-        <v>293</v>
-      </c>
-      <c r="L6" t="s">
-        <v>294</v>
-      </c>
-      <c r="M6" t="s">
-        <v>313</v>
-      </c>
       <c r="N6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7302,40 +7299,40 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I7" t="s">
+        <v>302</v>
+      </c>
+      <c r="J7" t="s">
         <v>314</v>
       </c>
-      <c r="D7" t="s">
-        <v>302</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="K7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L7" t="s">
         <v>290</v>
       </c>
-      <c r="F7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I7" t="s">
-        <v>303</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
+        <v>305</v>
+      </c>
+      <c r="N7" t="s">
         <v>315</v>
-      </c>
-      <c r="K7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M7" t="s">
-        <v>306</v>
-      </c>
-      <c r="N7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -7343,40 +7340,40 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" t="s">
         <v>317</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J8" t="s">
         <v>318</v>
       </c>
-      <c r="E8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" t="s">
-        <v>300</v>
-      </c>
-      <c r="I8" t="s">
-        <v>303</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>292</v>
+      </c>
+      <c r="L8" t="s">
+        <v>293</v>
+      </c>
+      <c r="M8" t="s">
+        <v>294</v>
+      </c>
+      <c r="N8" t="s">
         <v>319</v>
-      </c>
-      <c r="K8" t="s">
-        <v>293</v>
-      </c>
-      <c r="L8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M8" t="s">
-        <v>295</v>
-      </c>
-      <c r="N8" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -7384,40 +7381,40 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" t="s">
         <v>321</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" t="s">
+        <v>290</v>
+      </c>
+      <c r="J9" t="s">
         <v>322</v>
       </c>
-      <c r="E9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" t="s">
-        <v>300</v>
-      </c>
-      <c r="I9" t="s">
-        <v>291</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>323</v>
       </c>
-      <c r="K9" t="s">
-        <v>324</v>
-      </c>
       <c r="L9" t="s">
+        <v>293</v>
+      </c>
+      <c r="M9" t="s">
         <v>294</v>
       </c>
-      <c r="M9" t="s">
-        <v>295</v>
-      </c>
       <c r="N9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -7426,40 +7423,40 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>299</v>
+      </c>
+      <c r="I10" t="s">
+        <v>302</v>
+      </c>
+      <c r="J10" t="s">
         <v>325</v>
       </c>
-      <c r="D10" t="s">
-        <v>302</v>
-      </c>
-      <c r="E10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" t="s">
-        <v>300</v>
-      </c>
-      <c r="I10" t="s">
-        <v>303</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>292</v>
+      </c>
+      <c r="L10" t="s">
+        <v>293</v>
+      </c>
+      <c r="M10" t="s">
         <v>326</v>
       </c>
-      <c r="K10" t="s">
-        <v>293</v>
-      </c>
-      <c r="L10" t="s">
-        <v>294</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>327</v>
-      </c>
-      <c r="N10" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -7468,40 +7465,40 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" t="s">
         <v>329</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I11" t="s">
+        <v>290</v>
+      </c>
+      <c r="J11" t="s">
         <v>330</v>
       </c>
-      <c r="E11" t="s">
-        <v>290</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
+        <v>292</v>
+      </c>
+      <c r="L11" t="s">
         <v>293</v>
       </c>
-      <c r="I11" t="s">
-        <v>291</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
+        <v>312</v>
+      </c>
+      <c r="N11" t="s">
         <v>331</v>
-      </c>
-      <c r="K11" t="s">
-        <v>293</v>
-      </c>
-      <c r="L11" t="s">
-        <v>294</v>
-      </c>
-      <c r="M11" t="s">
-        <v>313</v>
-      </c>
-      <c r="N11" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -7510,40 +7507,40 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" t="s">
         <v>333</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s">
+        <v>292</v>
+      </c>
+      <c r="I12" t="s">
+        <v>302</v>
+      </c>
+      <c r="J12" t="s">
         <v>334</v>
       </c>
-      <c r="E12" t="s">
+      <c r="K12" t="s">
+        <v>323</v>
+      </c>
+      <c r="L12" t="s">
         <v>290</v>
       </c>
-      <c r="F12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" t="s">
-        <v>293</v>
-      </c>
-      <c r="I12" t="s">
-        <v>303</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
+        <v>294</v>
+      </c>
+      <c r="N12" t="s">
         <v>335</v>
-      </c>
-      <c r="K12" t="s">
-        <v>324</v>
-      </c>
-      <c r="L12" t="s">
-        <v>291</v>
-      </c>
-      <c r="M12" t="s">
-        <v>295</v>
-      </c>
-      <c r="N12" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -7552,40 +7549,40 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>359</v>
+      </c>
+      <c r="I13" t="s">
+        <v>302</v>
+      </c>
+      <c r="J13" t="s">
         <v>337</v>
       </c>
-      <c r="D13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="K13" t="s">
+        <v>299</v>
+      </c>
+      <c r="L13" t="s">
         <v>290</v>
       </c>
-      <c r="F13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" t="s">
-        <v>360</v>
-      </c>
-      <c r="I13" t="s">
-        <v>303</v>
-      </c>
-      <c r="J13" t="s">
-        <v>338</v>
-      </c>
-      <c r="K13" t="s">
-        <v>300</v>
-      </c>
-      <c r="L13" t="s">
-        <v>291</v>
-      </c>
       <c r="M13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7594,40 +7591,40 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" t="s">
         <v>339</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J14" t="s">
         <v>340</v>
       </c>
-      <c r="E14" t="s">
+      <c r="K14" t="s">
+        <v>323</v>
+      </c>
+      <c r="L14" t="s">
         <v>290</v>
       </c>
-      <c r="F14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" t="s">
-        <v>305</v>
-      </c>
-      <c r="I14" t="s">
-        <v>303</v>
-      </c>
-      <c r="J14" t="s">
-        <v>341</v>
-      </c>
-      <c r="K14" t="s">
-        <v>324</v>
-      </c>
-      <c r="L14" t="s">
-        <v>291</v>
-      </c>
       <c r="M14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7636,40 +7633,40 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" t="s">
         <v>342</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I15" t="s">
+        <v>302</v>
+      </c>
+      <c r="J15" t="s">
         <v>343</v>
       </c>
-      <c r="E15" t="s">
+      <c r="K15" t="s">
+        <v>292</v>
+      </c>
+      <c r="L15" t="s">
         <v>290</v>
       </c>
-      <c r="F15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="M15" t="s">
         <v>305</v>
       </c>
-      <c r="I15" t="s">
-        <v>303</v>
-      </c>
-      <c r="J15" t="s">
-        <v>344</v>
-      </c>
-      <c r="K15" t="s">
-        <v>293</v>
-      </c>
-      <c r="L15" t="s">
-        <v>291</v>
-      </c>
-      <c r="M15" t="s">
-        <v>306</v>
-      </c>
       <c r="N15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7678,40 +7675,40 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>323</v>
+      </c>
+      <c r="I16" t="s">
+        <v>293</v>
+      </c>
+      <c r="J16" t="s">
         <v>345</v>
       </c>
-      <c r="D16" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" t="s">
-        <v>290</v>
-      </c>
-      <c r="F16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" t="s">
-        <v>324</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
+        <v>346</v>
+      </c>
+      <c r="L16" t="s">
+        <v>293</v>
+      </c>
+      <c r="M16" t="s">
         <v>294</v>
       </c>
-      <c r="J16" t="s">
-        <v>346</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="N16" t="s">
         <v>347</v>
-      </c>
-      <c r="L16" t="s">
-        <v>294</v>
-      </c>
-      <c r="M16" t="s">
-        <v>295</v>
-      </c>
-      <c r="N16" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -7720,40 +7717,40 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>323</v>
+      </c>
+      <c r="I17" t="s">
+        <v>293</v>
+      </c>
+      <c r="J17" t="s">
         <v>349</v>
       </c>
-      <c r="D17" t="s">
-        <v>340</v>
-      </c>
-      <c r="E17" t="s">
-        <v>290</v>
-      </c>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" t="s">
-        <v>324</v>
-      </c>
-      <c r="I17" t="s">
-        <v>294</v>
-      </c>
-      <c r="J17" t="s">
-        <v>350</v>
-      </c>
       <c r="K17" t="s">
+        <v>346</v>
+      </c>
+      <c r="L17" t="s">
+        <v>293</v>
+      </c>
+      <c r="M17" t="s">
+        <v>312</v>
+      </c>
+      <c r="N17" t="s">
         <v>347</v>
-      </c>
-      <c r="L17" t="s">
-        <v>294</v>
-      </c>
-      <c r="M17" t="s">
-        <v>313</v>
-      </c>
-      <c r="N17" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -7762,40 +7759,40 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>323</v>
+      </c>
+      <c r="I18" t="s">
+        <v>293</v>
+      </c>
+      <c r="J18" t="s">
         <v>351</v>
       </c>
-      <c r="D18" t="s">
-        <v>340</v>
-      </c>
-      <c r="E18" t="s">
-        <v>290</v>
-      </c>
-      <c r="F18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" t="s">
-        <v>324</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
+        <v>346</v>
+      </c>
+      <c r="L18" t="s">
+        <v>293</v>
+      </c>
+      <c r="M18" t="s">
         <v>294</v>
       </c>
-      <c r="J18" t="s">
-        <v>352</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="N18" t="s">
         <v>347</v>
-      </c>
-      <c r="L18" t="s">
-        <v>294</v>
-      </c>
-      <c r="M18" t="s">
-        <v>295</v>
-      </c>
-      <c r="N18" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -7804,40 +7801,40 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" t="s">
         <v>353</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" t="s">
+        <v>299</v>
+      </c>
+      <c r="I19" t="s">
+        <v>290</v>
+      </c>
+      <c r="J19" t="s">
         <v>354</v>
       </c>
-      <c r="E19" t="s">
-        <v>290</v>
-      </c>
-      <c r="F19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" t="s">
-        <v>300</v>
-      </c>
-      <c r="I19" t="s">
-        <v>291</v>
-      </c>
-      <c r="J19" t="s">
-        <v>355</v>
-      </c>
       <c r="K19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -7846,40 +7843,40 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>304</v>
+      </c>
+      <c r="I20" t="s">
+        <v>290</v>
+      </c>
+      <c r="J20" t="s">
         <v>356</v>
       </c>
-      <c r="D20" t="s">
-        <v>340</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="K20" t="s">
+        <v>292</v>
+      </c>
+      <c r="L20" t="s">
         <v>290</v>
       </c>
-      <c r="F20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" t="s">
-        <v>305</v>
-      </c>
-      <c r="I20" t="s">
-        <v>291</v>
-      </c>
-      <c r="J20" t="s">
-        <v>357</v>
-      </c>
-      <c r="K20" t="s">
-        <v>293</v>
-      </c>
-      <c r="L20" t="s">
-        <v>291</v>
-      </c>
       <c r="M20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -7888,40 +7885,40 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" t="s">
+        <v>359</v>
+      </c>
+      <c r="I21" t="s">
+        <v>302</v>
+      </c>
+      <c r="J21" t="s">
         <v>358</v>
       </c>
-      <c r="D21" t="s">
-        <v>340</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="K21" t="s">
+        <v>359</v>
+      </c>
+      <c r="L21" t="s">
         <v>290</v>
       </c>
-      <c r="F21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" t="s">
-        <v>360</v>
-      </c>
-      <c r="I21" t="s">
-        <v>303</v>
-      </c>
-      <c r="J21" t="s">
-        <v>359</v>
-      </c>
-      <c r="K21" t="s">
-        <v>360</v>
-      </c>
-      <c r="L21" t="s">
-        <v>291</v>
-      </c>
       <c r="M21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7930,40 +7927,40 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D22" t="s">
+        <v>301</v>
+      </c>
+      <c r="E22" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>290</v>
+      </c>
+      <c r="J22" t="s">
         <v>361</v>
       </c>
-      <c r="D22" t="s">
-        <v>302</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="K22" t="s">
+        <v>299</v>
+      </c>
+      <c r="L22" t="s">
         <v>290</v>
       </c>
-      <c r="F22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="M22" t="s">
         <v>305</v>
       </c>
-      <c r="I22" t="s">
-        <v>291</v>
-      </c>
-      <c r="J22" t="s">
-        <v>362</v>
-      </c>
-      <c r="K22" t="s">
-        <v>300</v>
-      </c>
-      <c r="L22" t="s">
-        <v>291</v>
-      </c>
-      <c r="M22" t="s">
-        <v>306</v>
-      </c>
       <c r="N22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -7972,40 +7969,40 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" t="s">
         <v>363</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>289</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" t="s">
+        <v>299</v>
+      </c>
+      <c r="I23" t="s">
+        <v>290</v>
+      </c>
+      <c r="J23" t="s">
         <v>364</v>
       </c>
-      <c r="E23" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" t="s">
-        <v>300</v>
-      </c>
-      <c r="I23" t="s">
-        <v>291</v>
-      </c>
-      <c r="J23" t="s">
-        <v>365</v>
-      </c>
       <c r="K23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L23" t="s">
+        <v>293</v>
+      </c>
+      <c r="M23" t="s">
         <v>294</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>295</v>
-      </c>
-      <c r="N23" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -8014,40 +8011,40 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" t="s">
+        <v>304</v>
+      </c>
+      <c r="I24" t="s">
+        <v>293</v>
+      </c>
+      <c r="J24" t="s">
         <v>366</v>
       </c>
-      <c r="D24" t="s">
-        <v>308</v>
-      </c>
-      <c r="E24" t="s">
-        <v>290</v>
-      </c>
-      <c r="F24" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" t="s">
-        <v>305</v>
-      </c>
-      <c r="I24" t="s">
-        <v>294</v>
-      </c>
-      <c r="J24" t="s">
-        <v>367</v>
-      </c>
       <c r="K24" t="s">
+        <v>292</v>
+      </c>
+      <c r="L24" t="s">
         <v>293</v>
       </c>
-      <c r="L24" t="s">
-        <v>294</v>
-      </c>
       <c r="M24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -8056,40 +8053,40 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D25" t="s">
         <v>368</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" t="s">
+        <v>304</v>
+      </c>
+      <c r="I25" t="s">
+        <v>293</v>
+      </c>
+      <c r="J25" t="s">
         <v>369</v>
       </c>
-      <c r="E25" t="s">
-        <v>290</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
+        <v>292</v>
+      </c>
+      <c r="L25" t="s">
+        <v>293</v>
+      </c>
+      <c r="M25" t="s">
         <v>305</v>
       </c>
-      <c r="I25" t="s">
-        <v>294</v>
-      </c>
-      <c r="J25" t="s">
-        <v>370</v>
-      </c>
-      <c r="K25" t="s">
-        <v>293</v>
-      </c>
-      <c r="L25" t="s">
-        <v>294</v>
-      </c>
-      <c r="M25" t="s">
-        <v>306</v>
-      </c>
       <c r="N25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -8098,40 +8095,40 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
+        <v>370</v>
+      </c>
+      <c r="D26" t="s">
         <v>371</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" t="s">
+        <v>359</v>
+      </c>
+      <c r="I26" t="s">
+        <v>290</v>
+      </c>
+      <c r="J26" t="s">
         <v>372</v>
       </c>
-      <c r="E26" t="s">
+      <c r="K26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L26" t="s">
         <v>290</v>
       </c>
-      <c r="F26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" t="s">
-        <v>360</v>
-      </c>
-      <c r="I26" t="s">
-        <v>291</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="M26" t="s">
         <v>373</v>
       </c>
-      <c r="K26" t="s">
-        <v>300</v>
-      </c>
-      <c r="L26" t="s">
-        <v>291</v>
-      </c>
-      <c r="M26" t="s">
-        <v>374</v>
-      </c>
       <c r="N26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -8140,40 +8137,40 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" t="s">
         <v>375</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>289</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" t="s">
+        <v>304</v>
+      </c>
+      <c r="I27" t="s">
+        <v>293</v>
+      </c>
+      <c r="J27" t="s">
         <v>376</v>
       </c>
-      <c r="E27" t="s">
-        <v>290</v>
-      </c>
-      <c r="F27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" t="s">
-        <v>305</v>
-      </c>
-      <c r="I27" t="s">
-        <v>294</v>
-      </c>
-      <c r="J27" t="s">
-        <v>377</v>
-      </c>
       <c r="K27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -8182,40 +8179,40 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
+        <v>377</v>
+      </c>
+      <c r="D28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" t="s">
+        <v>289</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" t="s">
+        <v>299</v>
+      </c>
+      <c r="I28" t="s">
+        <v>290</v>
+      </c>
+      <c r="J28" t="s">
         <v>378</v>
       </c>
-      <c r="D28" t="s">
-        <v>311</v>
-      </c>
-      <c r="E28" t="s">
-        <v>290</v>
-      </c>
-      <c r="F28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" t="s">
-        <v>300</v>
-      </c>
-      <c r="I28" t="s">
-        <v>291</v>
-      </c>
-      <c r="J28" t="s">
-        <v>379</v>
-      </c>
       <c r="K28" t="s">
+        <v>292</v>
+      </c>
+      <c r="L28" t="s">
         <v>293</v>
       </c>
-      <c r="L28" t="s">
-        <v>294</v>
-      </c>
       <c r="M28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -8252,7 +8249,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -8308,7 +8305,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -8720,10 +8717,10 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
         <v>97</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8731,16 +8728,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8748,16 +8745,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
         <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
       </c>
       <c r="D3" s="9">
         <v>607784</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8765,16 +8762,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="9">
         <v>123456</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8782,16 +8779,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="9">
         <v>654321</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8799,16 +8796,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8816,16 +8813,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8833,16 +8830,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8850,16 +8847,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" t="s">
-        <v>107</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -8867,13 +8864,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8881,13 +8878,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8895,16 +8892,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
         <v>108</v>
       </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8912,16 +8909,16 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8929,16 +8926,16 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8946,16 +8943,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
         <v>113</v>
       </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>114</v>
-      </c>
-      <c r="E15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8963,10 +8960,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8974,10 +8971,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -9020,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
@@ -9032,13 +9029,13 @@
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -9049,7 +9046,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -9058,16 +9055,16 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9078,7 +9075,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -9093,7 +9090,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -9104,7 +9101,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
@@ -9116,13 +9113,13 @@
         <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9133,7 +9130,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -9148,7 +9145,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9159,7 +9156,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -9174,7 +9171,7 @@
         <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9185,7 +9182,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -9208,7 +9205,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -9223,10 +9220,10 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9237,7 +9234,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
@@ -9252,7 +9249,7 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -9355,7 +9352,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -9411,7 +9408,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9441,8 +9438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBE28E4-3DB0-487F-AAD0-E345678244B7}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9471,16 +9468,16 @@
         <v>80</v>
       </c>
       <c r="E1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
         <v>189</v>
-      </c>
-      <c r="F1" t="s">
-        <v>190</v>
       </c>
       <c r="G1" t="s">
         <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -9488,13 +9485,13 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="1">
         <v>43922</v>
@@ -9506,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9514,13 +9511,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="E3" s="1">
         <v>43922</v>
@@ -9532,7 +9529,7 @@
         <v>43300</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9540,13 +9537,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="E4" s="1">
         <v>44105</v>
@@ -9558,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9566,13 +9563,13 @@
         <v>28</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="E5" s="1">
         <v>44105</v>
@@ -9584,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9592,13 +9589,13 @@
         <v>28</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="E6" s="1">
         <v>44105</v>
@@ -9610,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9618,13 +9615,13 @@
         <v>28</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="E7" s="1">
         <v>44287</v>
@@ -9636,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9644,13 +9641,13 @@
         <v>28</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="E8" s="1">
         <v>44287</v>
@@ -9662,7 +9659,7 @@
         <v>113152</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -9670,13 +9667,13 @@
         <v>28</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1">
         <v>44287</v>
@@ -9688,7 +9685,7 @@
         <v>76166</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -9696,13 +9693,13 @@
         <v>28</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="1">
         <v>44652</v>
@@ -9714,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -9722,13 +9719,13 @@
         <v>28</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1">
         <v>44652</v>
@@ -9740,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -9748,13 +9745,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="D12" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1">
         <v>44652</v>
@@ -9766,7 +9763,7 @@
         <v>60000</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -9774,13 +9771,13 @@
         <v>28</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="E13" s="1">
         <v>44835</v>
@@ -9792,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -9800,13 +9797,13 @@
         <v>28</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1">
         <v>44835</v>
@@ -9818,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -9826,13 +9823,13 @@
         <v>28</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="1">
         <v>44835</v>
@@ -9844,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9894,6 +9891,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB5DDB95A7ECBD49AA08D06BA3EF1CDA" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="95a99fb7649f76cf16eb4f5cafa7cbc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="681fe441-c46c-4ea5-a5c5-b45872725697" xmlns:ns3="6bac55d2-c587-47e2-866b-bbb6fe14d104" xmlns:ns4="83a87e31-bf32-46ab-8e70-9fa18461fa4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbf7ff0d2c127a9a42e650b92ffbc482" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="681fe441-c46c-4ea5-a5c5-b45872725697"/>
@@ -10135,27 +10152,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70073AC4-B26C-493C-8C25-29DBD67F7B7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CA70E21-41D5-415B-B329-A133B7922149}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9931E176-D5AF-4D57-88FA-0E21DE56657D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10175,25 +10191,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CA70E21-41D5-415B-B329-A133B7922149}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70073AC4-B26C-493C-8C25-29DBD67F7B7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{95c71a0f-75e1-4c8f-90e2-641c9351dd98}" enabled="1" method="Standard" siteId="{3e0088dc-0629-4ae6-aa8c-813e7a296f50}" removed="0"/>

--- a/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
+++ b/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DobbsC\PycharmProjects\funding-service-design-post-award-data-store\tests\controller_tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298987C2-895A-443C-8482-7114591D781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B293F42-C7AC-43FC-9F02-4AB8C432C2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="1800" windowWidth="32310" windowHeight="15435" firstSheet="6" activeTab="6" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="7" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission_Ref" sheetId="20" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="408">
   <si>
     <t>Submission ID</t>
   </si>
@@ -1269,6 +1269,12 @@
   </si>
   <si>
     <t>SW1A 2AA,BT1 1AA</t>
+  </si>
+  <si>
+    <t>12/13/14</t>
+  </si>
+  <si>
+    <t>12/13/16</t>
   </si>
 </sst>
 </file>
@@ -2919,7 +2925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3423617-CC86-44FD-A69A-E6E9F4D332E6}">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D15"/>
     </sheetView>
   </sheetViews>
@@ -6658,7 +6664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4717C6AB-1205-4862-A377-00B1F94B35FD}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -9720,8 +9726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DDC13-8AF0-4935-A621-88AD3C9E9DD9}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10079,8 +10085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E8DE40-009E-4B3E-BD8A-08B04A259F7E}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10164,6 +10170,9 @@
       <c r="I2">
         <v>3</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -10193,6 +10202,7 @@
       <c r="I3">
         <v>3</v>
       </c>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -10222,14 +10232,19 @@
       <c r="I4">
         <v>5</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10248,7 +10263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBE28E4-3DB0-487F-AAD0-E345678244B7}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
+++ b/tests/controller_tests/resources/Data_Model_v3.7_EXAMPLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DobbsC\PycharmProjects\funding-service-design-post-award-data-store\tests\controller_tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3C8067-9751-4DF3-B3FD-577599EE77C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782A93F3-5EB5-4692-807C-5D6FB2B2AFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="1605" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="8" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="38700" windowHeight="15435" firstSheet="7" activeTab="13" xr2:uid="{00652EC3-4B88-41F9-B7C9-30F3C6E2549B}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission_Ref" sheetId="20" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="406">
   <si>
     <t>Programme ID</t>
   </si>
@@ -1266,6 +1266,9 @@
   </si>
   <si>
     <t>12/13/16</t>
+  </si>
+  <si>
+    <t>Example Null Category Outcome</t>
   </si>
 </sst>
 </file>
@@ -1513,8 +1516,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{16381EAE-E4C5-4567-95AA-33EE9251DC1D}" name="Table6" displayName="Table6" ref="A1:B65" totalsRowShown="0">
-  <autoFilter ref="A1:B65" xr:uid="{16381EAE-E4C5-4567-95AA-33EE9251DC1D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{16381EAE-E4C5-4567-95AA-33EE9251DC1D}" name="Table6" displayName="Table6" ref="A1:B66" totalsRowShown="0">
+  <autoFilter ref="A1:B66" xr:uid="{16381EAE-E4C5-4567-95AA-33EE9251DC1D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9DA3BB6A-A48F-4CC5-AF90-C29356A04C9A}" name="Outcome_Name"/>
     <tableColumn id="2" xr3:uid="{5DD9E4B4-A6A7-4E19-ACD9-7418586D71E4}" name="Outcome_Category"/>
@@ -5678,10 +5681,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4566479-493F-467C-B8F7-F354284ED4E4}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6208,6 +6211,11 @@
       </c>
       <c r="B65" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -6223,7 +6231,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9438,7 +9446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBE28E4-3DB0-487F-AAD0-E345678244B7}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -9891,26 +9899,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB5DDB95A7ECBD49AA08D06BA3EF1CDA" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="95a99fb7649f76cf16eb4f5cafa7cbc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="681fe441-c46c-4ea5-a5c5-b45872725697" xmlns:ns3="6bac55d2-c587-47e2-866b-bbb6fe14d104" xmlns:ns4="83a87e31-bf32-46ab-8e70-9fa18461fa4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbf7ff0d2c127a9a42e650b92ffbc482" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="681fe441-c46c-4ea5-a5c5-b45872725697"/>
@@ -10152,26 +10140,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70073AC4-B26C-493C-8C25-29DBD67F7B7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CA70E21-41D5-415B-B329-A133B7922149}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9931E176-D5AF-4D57-88FA-0E21DE56657D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10191,6 +10180,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CA70E21-41D5-415B-B329-A133B7922149}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70073AC4-B26C-493C-8C25-29DBD67F7B7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{95c71a0f-75e1-4c8f-90e2-641c9351dd98}" enabled="1" method="Standard" siteId="{3e0088dc-0629-4ae6-aa8c-813e7a296f50}" removed="0"/>
